--- a/Simulador/res_sim_ori.xlsx
+++ b/Simulador/res_sim_ori.xlsx
@@ -2874,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>217.3237578947572</v>
+        <v>214.047978155085</v>
       </c>
       <c r="D86">
-        <v>27.18445777893066</v>
+        <v>26.97741508483887</v>
       </c>
       <c r="E86">
         <v>344.0415503671599</v>
       </c>
       <c r="F86">
-        <v>45.56094360351562</v>
+        <v>45.91061019897461</v>
       </c>
       <c r="G86">
         <v>1.596116034322399</v>
@@ -2892,7 +2892,7 @@
         <v>3.492272793926644</v>
       </c>
       <c r="I86">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2921,7 +2921,7 @@
         <v>1.57454844203958</v>
       </c>
       <c r="I87">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2932,16 +2932,16 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>207.6413092108305</v>
+        <v>206.2004879056706</v>
       </c>
       <c r="D88">
-        <v>32.52976226806641</v>
+        <v>32.43869400024414</v>
       </c>
       <c r="E88">
         <v>168.9935131340457</v>
       </c>
       <c r="F88">
-        <v>18.7021541595459</v>
+        <v>18.75465774536133</v>
       </c>
       <c r="G88">
         <v>0.3711593507547151</v>
@@ -2950,7 +2950,7 @@
         <v>1.731397461341183</v>
       </c>
       <c r="I88">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2979,7 +2979,7 @@
         <v>1.57520843538257</v>
       </c>
       <c r="I89">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2990,16 +2990,16 @@
         <v>4</v>
       </c>
       <c r="C90">
-        <v>199.668652147966</v>
+        <v>202.4453253881302</v>
       </c>
       <c r="D90">
-        <v>33.70217514038086</v>
+        <v>33.8776741027832</v>
       </c>
       <c r="E90">
         <v>48.49833201473393</v>
       </c>
       <c r="F90">
-        <v>5.180496215820312</v>
+        <v>5.153659343719482</v>
       </c>
       <c r="G90">
         <v>0.07414374889212304</v>
@@ -3008,7 +3008,7 @@
         <v>3.40763809526817</v>
       </c>
       <c r="I90">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3019,16 +3019,16 @@
         <v>5</v>
       </c>
       <c r="C91">
-        <v>191.2218158009515</v>
+        <v>198.0816970944815</v>
       </c>
       <c r="D91">
-        <v>33.56163787841797</v>
+        <v>33.99521636962891</v>
       </c>
       <c r="E91">
         <v>15.03489657772798</v>
       </c>
       <c r="F91">
-        <v>1.612722992897034</v>
+        <v>1.592154145240784</v>
       </c>
       <c r="G91">
         <v>-0.01674270518462065</v>
@@ -3037,7 +3037,7 @@
         <v>2.835582102804634</v>
       </c>
       <c r="I91">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3066,7 +3066,7 @@
         <v>4.760357197651417</v>
       </c>
       <c r="I92">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3077,16 +3077,16 @@
         <v>7</v>
       </c>
       <c r="C93">
-        <v>149.0834001553285</v>
+        <v>152.7392001620819</v>
       </c>
       <c r="D93">
-        <v>42.54006958007812</v>
+        <v>42.70247650146484</v>
       </c>
       <c r="E93">
         <v>560.0692098765884</v>
       </c>
       <c r="F93">
-        <v>47.39646911621094</v>
+        <v>47.21620941162109</v>
       </c>
       <c r="G93">
         <v>-2.435372970096637</v>
@@ -3095,7 +3095,7 @@
         <v>3.98256430003651</v>
       </c>
       <c r="I93">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3124,7 +3124,7 @@
         <v>-3.902847856084686</v>
       </c>
       <c r="I94">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3135,16 +3135,16 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>204.8626392013183</v>
+        <v>200.828139993588</v>
       </c>
       <c r="D95">
-        <v>34.48647308349609</v>
+        <v>34.23147583007812</v>
       </c>
       <c r="E95">
         <v>199.1265320145867</v>
       </c>
       <c r="F95">
-        <v>20.78656959533691</v>
+        <v>20.94141387939453</v>
       </c>
       <c r="G95">
         <v>-0.1659918344285073</v>
@@ -3153,7 +3153,7 @@
         <v>-3.39453113286161</v>
       </c>
       <c r="I95">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3182,7 +3182,7 @@
         <v>-2.756201684925812</v>
       </c>
       <c r="I96">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3211,7 +3211,7 @@
         <v>-0.6139341684454964</v>
       </c>
       <c r="I97">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3222,16 +3222,16 @@
         <v>12</v>
       </c>
       <c r="C98">
-        <v>258.1337500041859</v>
+        <v>255.7888691232266</v>
       </c>
       <c r="D98">
-        <v>21.18265914916992</v>
+        <v>21.05522346496582</v>
       </c>
       <c r="E98">
         <v>1755.103346009126</v>
       </c>
       <c r="F98">
-        <v>298.2803955078125</v>
+        <v>300.0857238769531</v>
       </c>
       <c r="G98">
         <v>3.32023723483058</v>
@@ -3240,7 +3240,7 @@
         <v>-2.486692203613646</v>
       </c>
       <c r="I98">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3251,16 +3251,16 @@
         <v>13</v>
       </c>
       <c r="C99">
-        <v>197.3671755024099</v>
+        <v>220.4471407469995</v>
       </c>
       <c r="D99">
-        <v>33.19975280761719</v>
+        <v>34.64437484741211</v>
       </c>
       <c r="E99">
         <v>26.87268222576495</v>
       </c>
       <c r="F99">
-        <v>2.91392707824707</v>
+        <v>2.792420148849487</v>
       </c>
       <c r="G99">
         <v>-0.05742926703369799</v>
@@ -3269,7 +3269,7 @@
         <v>-4.904003908876237</v>
       </c>
       <c r="I99">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3298,7 +3298,7 @@
         <v>-5.685938728369462</v>
       </c>
       <c r="I100">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3309,16 +3309,16 @@
         <v>15</v>
       </c>
       <c r="C101">
-        <v>171.0758748081565</v>
+        <v>177.5893057174293</v>
       </c>
       <c r="D101">
-        <v>41.52116012573242</v>
+        <v>41.86480331420898</v>
       </c>
       <c r="E101">
         <v>778.6626264767738</v>
       </c>
       <c r="F101">
-        <v>67.51220703125</v>
+        <v>66.95804595947266</v>
       </c>
       <c r="G101">
         <v>-2.347143802750921</v>
@@ -3327,7 +3327,7 @@
         <v>-5.184267536920604</v>
       </c>
       <c r="I101">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3338,16 +3338,16 @@
         <v>16</v>
       </c>
       <c r="C102">
-        <v>210.8733808669576</v>
+        <v>212.3321146756272</v>
       </c>
       <c r="D102">
-        <v>31.88297653198242</v>
+        <v>31.97517776489258</v>
       </c>
       <c r="E102">
         <v>118.2246671331604</v>
       </c>
       <c r="F102">
-        <v>13.34909248352051</v>
+        <v>13.3105993270874</v>
       </c>
       <c r="G102">
         <v>0.4746819056162278</v>
@@ -3356,7 +3356,7 @@
         <v>-1.272944327177375</v>
       </c>
       <c r="I102">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3367,16 +3367,16 @@
         <v>17</v>
       </c>
       <c r="C103">
-        <v>172.2985057241145</v>
+        <v>175.1221506115912</v>
       </c>
       <c r="D103">
-        <v>41.4107666015625</v>
+        <v>41.56028366088867</v>
       </c>
       <c r="E103">
         <v>2858.371279980439</v>
       </c>
       <c r="F103">
-        <v>248.4894104003906</v>
+        <v>247.5954437255859</v>
       </c>
       <c r="G103">
         <v>-2.290160995983005</v>
@@ -3385,7 +3385,7 @@
         <v>-4.949172023586057</v>
       </c>
       <c r="I103">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3414,7 +3414,7 @@
         <v>-9.70486363213517</v>
       </c>
       <c r="I104">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3443,7 +3443,7 @@
         <v>-9.861219867994032</v>
       </c>
       <c r="I105">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3472,7 +3472,7 @@
         <v>-9.279345091961993</v>
       </c>
       <c r="I106">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3501,7 +3501,7 @@
         <v>-9.238281327998019</v>
       </c>
       <c r="I107">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3530,7 +3530,7 @@
         <v>-9.954147471937697</v>
       </c>
       <c r="I108">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3541,16 +3541,16 @@
         <v>23</v>
       </c>
       <c r="C109">
-        <v>217.6438962575264</v>
+        <v>196.5049447346427</v>
       </c>
       <c r="D109">
-        <v>34.1511116027832</v>
+        <v>32.82389068603516</v>
       </c>
       <c r="E109">
         <v>229.7816471182123</v>
       </c>
       <c r="F109">
-        <v>24.22216796875</v>
+        <v>25.20158004760742</v>
       </c>
       <c r="G109">
         <v>-0.2558670563346051</v>
@@ -3559,7 +3559,7 @@
         <v>-9.022411740833657</v>
       </c>
       <c r="I109">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3588,7 +3588,7 @@
         <v>-8.465904839481219</v>
       </c>
       <c r="I110">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3599,16 +3599,16 @@
         <v>25</v>
       </c>
       <c r="C111">
-        <v>183.7890546969772</v>
+        <v>178.0568346019731</v>
       </c>
       <c r="D111">
-        <v>42.09845733642578</v>
+        <v>41.80844497680664</v>
       </c>
       <c r="E111">
         <v>879.3661789674698</v>
       </c>
       <c r="F111">
-        <v>75.19795989990234</v>
+        <v>75.71958160400391</v>
       </c>
       <c r="G111">
         <v>-2.562822532464561</v>
@@ -3617,7 +3617,7 @@
         <v>-9.450384387180872</v>
       </c>
       <c r="I111">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3646,7 +3646,7 @@
         <v>-9.945059851748946</v>
       </c>
       <c r="I112">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3675,7 +3675,7 @@
         <v>-9.385389381431935</v>
       </c>
       <c r="I113">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3704,7 +3704,7 @@
         <v>-6.42479720367449</v>
       </c>
       <c r="I114">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3715,16 +3715,16 @@
         <v>29</v>
       </c>
       <c r="C115">
-        <v>134.2914727629446</v>
+        <v>136.6011885217094</v>
       </c>
       <c r="D115">
-        <v>45.21590423583984</v>
+        <v>45.31850814819336</v>
       </c>
       <c r="E115">
         <v>561.0455563968753</v>
       </c>
       <c r="F115">
-        <v>44.6693229675293</v>
+        <v>44.56818771362305</v>
       </c>
       <c r="G115">
         <v>-3.228726121143762</v>
@@ -3733,7 +3733,7 @@
         <v>4.029840037148754</v>
       </c>
       <c r="I115">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3744,16 +3744,16 @@
         <v>30</v>
       </c>
       <c r="C116">
-        <v>191.6888211908407</v>
+        <v>209.3663311244463</v>
       </c>
       <c r="D116">
-        <v>31.19890403747559</v>
+        <v>32.31621170043945</v>
       </c>
       <c r="E116">
         <v>104.9411033259221</v>
       </c>
       <c r="F116">
-        <v>12.10901355743408</v>
+        <v>11.690354347229</v>
       </c>
       <c r="G116">
         <v>0.5587509355297379</v>
@@ -3762,7 +3762,7 @@
         <v>7.35038777279619</v>
       </c>
       <c r="I116">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3773,16 +3773,16 @@
         <v>31</v>
       </c>
       <c r="C117">
-        <v>158.6182160864747</v>
+        <v>165.171491212528</v>
       </c>
       <c r="D117">
-        <v>41.23910140991211</v>
+        <v>41.56807327270508</v>
       </c>
       <c r="E117">
         <v>442.239946164329</v>
       </c>
       <c r="F117">
-        <v>38.60568618774414</v>
+        <v>38.3001594543457</v>
       </c>
       <c r="G117">
         <v>-2.31687999893804</v>
@@ -3791,7 +3791,7 @@
         <v>-2.995590014584259</v>
       </c>
       <c r="I117">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3802,16 +3802,16 @@
         <v>32</v>
       </c>
       <c r="C118">
-        <v>248.0426099658926</v>
+        <v>249.9296471820358</v>
       </c>
       <c r="D118">
-        <v>19.17267227172852</v>
+        <v>19.27522468566895</v>
       </c>
       <c r="E118">
         <v>803.8684356637259</v>
       </c>
       <c r="F118">
-        <v>150.9401702880859</v>
+        <v>150.1370849609375</v>
       </c>
       <c r="G118">
         <v>3.67386674782785</v>
@@ -3820,7 +3820,7 @@
         <v>1.64528195886503</v>
       </c>
       <c r="I118">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3849,7 +3849,7 @@
         <v>0.03624061437360713</v>
       </c>
       <c r="I119">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3860,16 +3860,16 @@
         <v>34</v>
       </c>
       <c r="C120">
-        <v>255.1095705474378</v>
+        <v>251.3450245960034</v>
       </c>
       <c r="D120">
-        <v>19.75454711914062</v>
+        <v>19.54996109008789</v>
       </c>
       <c r="E120">
         <v>1544.238605138566</v>
       </c>
       <c r="F120">
-        <v>281.4166870117188</v>
+        <v>284.3616333007812</v>
       </c>
       <c r="G120">
         <v>3.623477518515383</v>
@@ -3878,7 +3878,7 @@
         <v>-1.280216372607037</v>
       </c>
       <c r="I120">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3889,16 +3889,16 @@
         <v>35</v>
       </c>
       <c r="C121">
-        <v>157.2779467850146</v>
+        <v>158.2100472575905</v>
       </c>
       <c r="D121">
-        <v>42.09088134765625</v>
+        <v>42.13228607177734</v>
       </c>
       <c r="E121">
         <v>916.9238501302698</v>
       </c>
       <c r="F121">
-        <v>78.42377471923828</v>
+        <v>78.34670257568359</v>
       </c>
       <c r="G121">
         <v>-2.338576875737777</v>
@@ -3907,7 +3907,7 @@
         <v>1.418178375911533</v>
       </c>
       <c r="I121">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3918,16 +3918,16 @@
         <v>36</v>
       </c>
       <c r="C122">
-        <v>221.9048797289773</v>
+        <v>203.3474914139706</v>
       </c>
       <c r="D122">
-        <v>33.74606323242188</v>
+        <v>32.58233261108398</v>
       </c>
       <c r="E122">
         <v>30.13365751333913</v>
       </c>
       <c r="F122">
-        <v>3.2146315574646</v>
+        <v>3.329447507858276</v>
       </c>
       <c r="G122">
         <v>0.04705830724490476</v>
@@ -3936,7 +3936,7 @@
         <v>-6.504653418974739</v>
       </c>
       <c r="I122">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3947,16 +3947,16 @@
         <v>37</v>
       </c>
       <c r="C123">
-        <v>199.1879059205624</v>
+        <v>196.6319458077898</v>
       </c>
       <c r="D123">
-        <v>35.67437744140625</v>
+        <v>35.53152084350586</v>
       </c>
       <c r="E123">
         <v>46.67657954138122</v>
       </c>
       <c r="F123">
-        <v>4.710262298583984</v>
+        <v>4.72920036315918</v>
       </c>
       <c r="G123">
         <v>-0.5267327097768739</v>
@@ -3965,7 +3965,7 @@
         <v>-4.414407877173214</v>
       </c>
       <c r="I123">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3976,16 +3976,16 @@
         <v>38</v>
       </c>
       <c r="C124">
-        <v>229.9807321747195</v>
+        <v>231.6992814682062</v>
       </c>
       <c r="D124">
-        <v>25.07963752746582</v>
+        <v>25.18825912475586</v>
       </c>
       <c r="E124">
         <v>1452.278941769579</v>
       </c>
       <c r="F124">
-        <v>208.4640960693359</v>
+        <v>207.5651245117188</v>
       </c>
       <c r="G124">
         <v>2.176018014218581</v>
@@ -3994,7 +3994,7 @@
         <v>3.558546856154219</v>
       </c>
       <c r="I124">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4023,7 +4023,7 @@
         <v>1.146574443400988</v>
       </c>
       <c r="I125">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4052,7 +4052,7 @@
         <v>9.997376345115907</v>
       </c>
       <c r="I126">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4081,7 +4081,7 @@
         <v>9.135520449007458</v>
       </c>
       <c r="I127">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4092,16 +4092,16 @@
         <v>42</v>
       </c>
       <c r="C128">
-        <v>251.1924883702781</v>
+        <v>236.444568499365</v>
       </c>
       <c r="D128">
-        <v>21.23795700073242</v>
+        <v>20.48590660095215</v>
       </c>
       <c r="E128">
         <v>919.7985693233386</v>
       </c>
       <c r="F128">
-        <v>155.9130554199219</v>
+        <v>161.63671875</v>
       </c>
       <c r="G128">
         <v>3.234936644182395</v>
@@ -4110,7 +4110,7 @@
         <v>3.212140446956366</v>
       </c>
       <c r="I128">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4121,16 +4121,16 @@
         <v>43</v>
       </c>
       <c r="C129">
-        <v>142.8487049681554</v>
+        <v>153.6559369519699</v>
       </c>
       <c r="D129">
-        <v>40.56056976318359</v>
+        <v>41.29194641113281</v>
       </c>
       <c r="E129">
         <v>551.9324064875545</v>
       </c>
       <c r="F129">
-        <v>48.98739624023438</v>
+        <v>48.11971664428711</v>
       </c>
       <c r="G129">
         <v>-1.941400280353867</v>
@@ -4139,7 +4139,7 @@
         <v>8.736348125741674</v>
       </c>
       <c r="I129">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4150,16 +4150,16 @@
         <v>44</v>
       </c>
       <c r="C130">
-        <v>176.7011273711588</v>
+        <v>206.6633121248344</v>
       </c>
       <c r="D130">
-        <v>31.33520698547363</v>
+        <v>33.28225708007812</v>
       </c>
       <c r="E130">
         <v>207.6893822174316</v>
       </c>
       <c r="F130">
-        <v>23.86075592041016</v>
+        <v>22.46487617492676</v>
       </c>
       <c r="G130">
         <v>0.3983383409993186</v>
@@ -4168,7 +4168,7 @@
         <v>9.769148550392874</v>
       </c>
       <c r="I130">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4179,16 +4179,16 @@
         <v>45</v>
       </c>
       <c r="C131">
-        <v>153.5969973508302</v>
+        <v>148.9825704054745</v>
       </c>
       <c r="D131">
-        <v>42.39210510253906</v>
+        <v>42.18711471557617</v>
       </c>
       <c r="E131">
         <v>938.7045830726238</v>
       </c>
       <c r="F131">
-        <v>79.71617126464844</v>
+        <v>80.10352325439453</v>
       </c>
       <c r="G131">
         <v>-2.387654775159163</v>
@@ -4197,7 +4197,7 @@
         <v>3.048267834828779</v>
       </c>
       <c r="I131">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4208,16 +4208,16 @@
         <v>46</v>
       </c>
       <c r="C132">
-        <v>179.8181459287333</v>
+        <v>203.915781494023</v>
       </c>
       <c r="D132">
-        <v>32.34060287475586</v>
+        <v>33.90174865722656</v>
       </c>
       <c r="E132">
         <v>25.27869677441049</v>
       </c>
       <c r="F132">
-        <v>2.813902378082275</v>
+        <v>2.684324741363525</v>
       </c>
       <c r="G132">
         <v>0.2381323032010778</v>
@@ -4226,7 +4226,7 @@
         <v>9.671196658366</v>
       </c>
       <c r="I132">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4237,16 +4237,16 @@
         <v>47</v>
       </c>
       <c r="C133">
-        <v>150.19381120542</v>
+        <v>137.3423971274795</v>
       </c>
       <c r="D133">
-        <v>42.46534729003906</v>
+        <v>41.8292236328125</v>
       </c>
       <c r="E133">
         <v>710.8830771958565</v>
       </c>
       <c r="F133">
-        <v>60.26511383056641</v>
+        <v>61.18160247802734</v>
       </c>
       <c r="G133">
         <v>-2.316807924352409</v>
@@ -4255,7 +4255,7 @@
         <v>6.329466394030306</v>
       </c>
       <c r="I133">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4266,16 +4266,16 @@
         <v>48</v>
       </c>
       <c r="C134">
-        <v>173.909530650526</v>
+        <v>187.6193186265334</v>
       </c>
       <c r="D134">
-        <v>32.04615020751953</v>
+        <v>32.92135620117188</v>
       </c>
       <c r="E134">
         <v>13.61530962919642</v>
       </c>
       <c r="F134">
-        <v>1.529516458511353</v>
+        <v>1.488854646682739</v>
       </c>
       <c r="G134">
         <v>0.1923887149861216</v>
@@ -4284,7 +4284,7 @@
         <v>8.616249065587811</v>
       </c>
       <c r="I134">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4313,7 +4313,7 @@
         <v>9.478193265144439</v>
       </c>
       <c r="I135">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4324,16 +4324,16 @@
         <v>50</v>
       </c>
       <c r="C136">
-        <v>195.7068689763964</v>
+        <v>235.8415663915017</v>
       </c>
       <c r="D136">
-        <v>24.28691864013672</v>
+        <v>26.8163890838623</v>
       </c>
       <c r="E136">
         <v>435.5356769315731</v>
       </c>
       <c r="F136">
-        <v>64.55855560302734</v>
+        <v>58.46903610229492</v>
       </c>
       <c r="G136">
         <v>1.974519515110574</v>
@@ -4342,7 +4342,7 @@
         <v>6.773746381148227</v>
       </c>
       <c r="I136">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4353,16 +4353,16 @@
         <v>51</v>
       </c>
       <c r="C137">
-        <v>106.9720709986823</v>
+        <v>115.5146219195906</v>
       </c>
       <c r="D137">
-        <v>48.89583587646484</v>
+        <v>48.4605598449707</v>
       </c>
       <c r="E137">
         <v>1558.661065889315</v>
       </c>
       <c r="F137">
-        <v>114.7578201293945</v>
+        <v>115.7885818481445</v>
       </c>
       <c r="G137">
         <v>-4.645913252401428</v>
@@ -4371,7 +4371,7 @@
         <v>9.100209265993705</v>
       </c>
       <c r="I137">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4382,16 +4382,16 @@
         <v>52</v>
       </c>
       <c r="C138">
-        <v>228.1293861554872</v>
+        <v>221.3323283990086</v>
       </c>
       <c r="D138">
-        <v>26.26629066467285</v>
+        <v>25.83668327331543</v>
       </c>
       <c r="E138">
         <v>755.2700581801146</v>
       </c>
       <c r="F138">
-        <v>103.5156478881836</v>
+        <v>105.2368927001953</v>
       </c>
       <c r="G138">
         <v>2.031562830371228</v>
@@ -4400,7 +4400,7 @@
         <v>8.803832620215976</v>
       </c>
       <c r="I138">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4411,16 +4411,16 @@
         <v>53</v>
       </c>
       <c r="C139">
-        <v>151.3750809182409</v>
+        <v>147.9200776815112</v>
       </c>
       <c r="D139">
-        <v>43.57570266723633</v>
+        <v>43.42221450805664</v>
       </c>
       <c r="E139">
         <v>1264.899823143351</v>
       </c>
       <c r="F139">
-        <v>104.4994964599609</v>
+        <v>104.8688812255859</v>
       </c>
       <c r="G139">
         <v>-2.706180481819132</v>
@@ -4429,7 +4429,7 @@
         <v>2.715786035652243</v>
       </c>
       <c r="I139">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4440,16 +4440,16 @@
         <v>54</v>
       </c>
       <c r="C140">
-        <v>205.7392644122634</v>
+        <v>204.3318717681407</v>
       </c>
       <c r="D140">
-        <v>33.06689834594727</v>
+        <v>32.97794342041016</v>
       </c>
       <c r="E140">
         <v>12.47517702549885</v>
       </c>
       <c r="F140">
-        <v>1.358175039291382</v>
+        <v>1.361838579177856</v>
       </c>
       <c r="G140">
         <v>0.1809728507841649</v>
@@ -4458,7 +4458,7 @@
         <v>-0.9691183484051571</v>
       </c>
       <c r="I140">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4469,16 +4469,16 @@
         <v>55</v>
       </c>
       <c r="C141">
-        <v>198.1180756138675</v>
+        <v>200.8073296666729</v>
       </c>
       <c r="D141">
-        <v>34.23759460449219</v>
+        <v>34.40757369995117</v>
       </c>
       <c r="E141">
         <v>25.59575949009377</v>
       </c>
       <c r="F141">
-        <v>2.691332101821899</v>
+        <v>2.678036451339722</v>
       </c>
       <c r="G141">
         <v>-0.1671179263512283</v>
@@ -4487,7 +4487,7 @@
         <v>-1.836499198479489</v>
       </c>
       <c r="I141">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4498,16 +4498,16 @@
         <v>56</v>
       </c>
       <c r="C142">
-        <v>204.2901900255171</v>
+        <v>202.897288125262</v>
       </c>
       <c r="D142">
-        <v>33.32187652587891</v>
+        <v>33.23383712768555</v>
       </c>
       <c r="E142">
         <v>12.64423606528362</v>
       </c>
       <c r="F142">
-        <v>1.366046905517578</v>
+        <v>1.369665741920471</v>
       </c>
       <c r="G142">
         <v>0.0996391493335807</v>
@@ -4516,7 +4516,7 @@
         <v>-1.530310538753543</v>
       </c>
       <c r="I142">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4527,16 +4527,16 @@
         <v>57</v>
       </c>
       <c r="C143">
-        <v>200.8508955759284</v>
+        <v>202.2231268443722</v>
       </c>
       <c r="D143">
-        <v>33.71564102172852</v>
+        <v>33.80237197875977</v>
       </c>
       <c r="E143">
         <v>12.5971306548563</v>
       </c>
       <c r="F143">
-        <v>1.345063328742981</v>
+        <v>1.341611981391907</v>
       </c>
       <c r="G143">
         <v>-0.01533163524593177</v>
@@ -4545,7 +4545,7 @@
         <v>-1.223801256598705</v>
       </c>
       <c r="I143">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4556,16 +4556,16 @@
         <v>58</v>
       </c>
       <c r="C144">
-        <v>203.0468596901894</v>
+        <v>201.6663910932875</v>
       </c>
       <c r="D144">
-        <v>33.6161003112793</v>
+        <v>33.52884674072266</v>
       </c>
       <c r="E144">
         <v>23.20820445037316</v>
       </c>
       <c r="F144">
-        <v>2.485402345657349</v>
+        <v>2.491870164871216</v>
       </c>
       <c r="G144">
         <v>0.03034269269324871</v>
@@ -4574,7 +4574,7 @@
         <v>-1.305201694265891</v>
       </c>
       <c r="I144">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4603,7 +4603,7 @@
         <v>-1.639802592446514</v>
       </c>
       <c r="I145">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4614,16 +4614,16 @@
         <v>60</v>
       </c>
       <c r="C146">
-        <v>202.2163097567532</v>
+        <v>203.6023330876295</v>
       </c>
       <c r="D146">
-        <v>33.4315299987793</v>
+        <v>33.51913452148438</v>
       </c>
       <c r="E146">
         <v>41.78436304307252</v>
       </c>
       <c r="F146">
-        <v>4.499456405639648</v>
+        <v>4.487696170806885</v>
       </c>
       <c r="G146">
         <v>0.0612476728704989</v>
@@ -4632,7 +4632,7 @@
         <v>-1.095450470097568</v>
       </c>
       <c r="I146">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4661,7 +4661,7 @@
         <v>-1.303367942610337</v>
       </c>
       <c r="I147">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4672,16 +4672,16 @@
         <v>62</v>
       </c>
       <c r="C148">
-        <v>206.0340000950194</v>
+        <v>218.986102144562</v>
       </c>
       <c r="D148">
-        <v>31.95591735839844</v>
+        <v>32.77455139160156</v>
       </c>
       <c r="E148">
         <v>219.7798828132327</v>
       </c>
       <c r="F148">
-        <v>24.75934219360352</v>
+        <v>24.14091110229492</v>
       </c>
       <c r="G148">
         <v>0.3614021000029659</v>
@@ -4690,7 +4690,7 @@
         <v>-2.996890153055212</v>
       </c>
       <c r="I148">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4701,16 +4701,16 @@
         <v>63</v>
       </c>
       <c r="C149">
-        <v>156.05044099235</v>
+        <v>161.9518584640765</v>
       </c>
       <c r="D149">
-        <v>42.90956115722656</v>
+        <v>43.17078018188477</v>
       </c>
       <c r="E149">
         <v>570.7407078778269</v>
       </c>
       <c r="F149">
-        <v>47.88365173339844</v>
+        <v>47.59391784667969</v>
       </c>
       <c r="G149">
         <v>-2.819358949109247</v>
@@ -4719,7 +4719,7 @@
         <v>-4.047118092241034</v>
       </c>
       <c r="I149">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4730,16 +4730,16 @@
         <v>64</v>
       </c>
       <c r="C150">
-        <v>219.525338776895</v>
+        <v>222.6789171192806</v>
       </c>
       <c r="D150">
-        <v>29.0995922088623</v>
+        <v>29.29891204833984</v>
       </c>
       <c r="E150">
         <v>1701.564347687097</v>
       </c>
       <c r="F150">
-        <v>210.5057373046875</v>
+        <v>209.0736846923828</v>
       </c>
       <c r="G150">
         <v>1.192672554068895</v>
@@ -4748,7 +4748,7 @@
         <v>1.224496329143648</v>
       </c>
       <c r="I150">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4759,16 +4759,16 @@
         <v>65</v>
       </c>
       <c r="C151">
-        <v>158.3388051963592</v>
+        <v>159.2816214104639</v>
       </c>
       <c r="D151">
-        <v>41.761474609375</v>
+        <v>41.8033561706543</v>
       </c>
       <c r="E151">
         <v>1238.094529523736</v>
       </c>
       <c r="F151">
-        <v>106.728515625</v>
+        <v>106.6215896606445</v>
       </c>
       <c r="G151">
         <v>-2.281667608214841</v>
@@ -4777,7 +4777,7 @@
         <v>0.5497540025124052</v>
       </c>
       <c r="I151">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4788,16 +4788,16 @@
         <v>66</v>
       </c>
       <c r="C152">
-        <v>248.4270775001456</v>
+        <v>252.1704872450465</v>
       </c>
       <c r="D152">
-        <v>19.86155891418457</v>
+        <v>20.06499862670898</v>
       </c>
       <c r="E152">
         <v>1478.37646889903</v>
       </c>
       <c r="F152">
-        <v>267.9626159667969</v>
+        <v>265.2457275390625</v>
       </c>
       <c r="G152">
         <v>3.513903955135374</v>
@@ -4806,7 +4806,7 @@
         <v>1.309943888990366</v>
       </c>
       <c r="I152">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4817,16 +4817,16 @@
         <v>67</v>
       </c>
       <c r="C153">
-        <v>205.4770042528567</v>
+        <v>188.6677900687542</v>
       </c>
       <c r="D153">
-        <v>37.81704330444336</v>
+        <v>36.88650512695312</v>
       </c>
       <c r="E153">
         <v>292.6010743627921</v>
       </c>
       <c r="F153">
-        <v>27.85420799255371</v>
+        <v>28.55688858032227</v>
       </c>
       <c r="G153">
         <v>-0.9351353751330883</v>
@@ -4835,7 +4835,7 @@
         <v>-4.295350749098601</v>
       </c>
       <c r="I153">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -4846,16 +4846,16 @@
         <v>68</v>
       </c>
       <c r="C154">
-        <v>204.0889081854114</v>
+        <v>202.6980191035573</v>
       </c>
       <c r="D154">
-        <v>33.49015426635742</v>
+        <v>33.40224456787109</v>
       </c>
       <c r="E154">
         <v>20.36903480348701</v>
       </c>
       <c r="F154">
-        <v>2.189554691314697</v>
+        <v>2.195317268371582</v>
       </c>
       <c r="G154">
         <v>0.08839089202534364</v>
@@ -4864,7 +4864,7 @@
         <v>-0.4008727633516296</v>
       </c>
       <c r="I154">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4875,16 +4875,16 @@
         <v>69</v>
       </c>
       <c r="C155">
-        <v>193.9561153807263</v>
+        <v>200.469050500965</v>
       </c>
       <c r="D155">
-        <v>35.09585952758789</v>
+        <v>35.50751113891602</v>
       </c>
       <c r="E155">
         <v>18.65366707263456</v>
       </c>
       <c r="F155">
-        <v>1.913422346115112</v>
+        <v>1.891239404678345</v>
       </c>
       <c r="G155">
         <v>-0.3949548349024165</v>
@@ -4893,7 +4893,7 @@
         <v>-2.043470506630904</v>
       </c>
       <c r="I155">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4904,16 +4904,16 @@
         <v>70</v>
       </c>
       <c r="C156">
-        <v>245.7498853962055</v>
+        <v>247.575641814349</v>
       </c>
       <c r="D156">
-        <v>21.5657958984375</v>
+        <v>21.66502380371094</v>
       </c>
       <c r="E156">
         <v>1192.852900399776</v>
       </c>
       <c r="F156">
-        <v>199.1241302490234</v>
+        <v>198.2121276855469</v>
       </c>
       <c r="G156">
         <v>3.068620452199015</v>
@@ -4922,7 +4922,7 @@
         <v>-1.802040962007777</v>
       </c>
       <c r="I156">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4933,16 +4933,16 @@
         <v>71</v>
       </c>
       <c r="C157">
-        <v>203.4838443715015</v>
+        <v>204.8415291202417</v>
       </c>
       <c r="D157">
-        <v>34.22777557373047</v>
+        <v>34.31358337402344</v>
       </c>
       <c r="E157">
         <v>39.58186892988306</v>
       </c>
       <c r="F157">
-        <v>4.163131237030029</v>
+        <v>4.15272045135498</v>
       </c>
       <c r="G157">
         <v>-0.09555382349409856</v>
@@ -4951,7 +4951,7 @@
         <v>-1.742113006776057</v>
       </c>
       <c r="I157">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4980,7 +4980,7 @@
         <v>-1.56225071611269</v>
       </c>
       <c r="I158">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -4991,16 +4991,16 @@
         <v>73</v>
       </c>
       <c r="C159">
-        <v>207.1536906319353</v>
+        <v>194.2306278472139</v>
       </c>
       <c r="D159">
-        <v>35.9913330078125</v>
+        <v>35.24475479125977</v>
       </c>
       <c r="E159">
         <v>113.1510649064658</v>
       </c>
       <c r="F159">
-        <v>11.31783008575439</v>
+        <v>11.55757236480713</v>
       </c>
       <c r="G159">
         <v>-0.4501397728075357</v>
@@ -5009,7 +5009,7 @@
         <v>-3.364038488402069</v>
       </c>
       <c r="I159">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5020,16 +5020,16 @@
         <v>74</v>
       </c>
       <c r="C160">
-        <v>209.8348516570096</v>
+        <v>208.455472117419</v>
       </c>
       <c r="D160">
-        <v>33.90517425537109</v>
+        <v>33.81798934936523</v>
       </c>
       <c r="E160">
         <v>35.79399999910675</v>
       </c>
       <c r="F160">
-        <v>3.800552368164062</v>
+        <v>3.81035041809082</v>
       </c>
       <c r="G160">
         <v>0.02429351747549238</v>
@@ -5038,7 +5038,7 @@
         <v>-2.850329613276325</v>
       </c>
       <c r="I160">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5049,16 +5049,16 @@
         <v>75</v>
       </c>
       <c r="C161">
-        <v>196.1326630767642</v>
+        <v>197.3815455822572</v>
       </c>
       <c r="D161">
-        <v>36.13879013061523</v>
+        <v>36.20859146118164</v>
       </c>
       <c r="E161">
         <v>122.4589308720097</v>
       </c>
       <c r="F161">
-        <v>12.19886207580566</v>
+        <v>12.17534637451172</v>
       </c>
       <c r="G161">
         <v>-0.6813108349116376</v>
@@ -5067,7 +5067,7 @@
         <v>-4.546921201111702</v>
       </c>
       <c r="I161">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5096,7 +5096,7 @@
         <v>-0.7150572444261751</v>
       </c>
       <c r="I162">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5125,7 +5125,7 @@
         <v>0.5490306867231698</v>
       </c>
       <c r="I163">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5136,16 +5136,16 @@
         <v>78</v>
       </c>
       <c r="C164">
-        <v>206.9435827365307</v>
+        <v>208.377356299526</v>
       </c>
       <c r="D164">
-        <v>32.50057983398438</v>
+        <v>32.5911979675293</v>
       </c>
       <c r="E164">
         <v>21.65612692477589</v>
       </c>
       <c r="F164">
-        <v>2.398789644241333</v>
+        <v>2.392119884490967</v>
       </c>
       <c r="G164">
         <v>0.330747838116172</v>
@@ -5154,7 +5154,7 @@
         <v>0.02587660591580461</v>
       </c>
       <c r="I164">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5165,16 +5165,16 @@
         <v>79</v>
       </c>
       <c r="C165">
-        <v>213.098663873624</v>
+        <v>219.0362514814714</v>
       </c>
       <c r="D165">
-        <v>34.86740875244141</v>
+        <v>35.21742248535156</v>
       </c>
       <c r="E165">
         <v>75.08637616922351</v>
       </c>
       <c r="F165">
-        <v>7.752538681030273</v>
+        <v>7.675488948822021</v>
       </c>
       <c r="G165">
         <v>-0.1576901133683288</v>
@@ -5183,7 +5183,7 @@
         <v>-4.258154043925821</v>
       </c>
       <c r="I165">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5194,16 +5194,16 @@
         <v>80</v>
       </c>
       <c r="C166">
-        <v>235.9607523270495</v>
+        <v>234.251144803779</v>
       </c>
       <c r="D166">
-        <v>25.48665428161621</v>
+        <v>25.37860107421875</v>
       </c>
       <c r="E166">
         <v>2427.044252905944</v>
       </c>
       <c r="F166">
-        <v>342.8209228515625</v>
+        <v>344.2805480957031</v>
       </c>
       <c r="G166">
         <v>2.10853553547893</v>
@@ -5212,7 +5212,7 @@
         <v>0.7481270099782461</v>
       </c>
       <c r="I166">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5223,16 +5223,16 @@
         <v>81</v>
       </c>
       <c r="C167">
-        <v>154.9152582256754</v>
+        <v>155.8144108079321</v>
       </c>
       <c r="D167">
-        <v>42.98599243164062</v>
+        <v>43.02593994140625</v>
       </c>
       <c r="E167">
         <v>3454.663685947395</v>
       </c>
       <c r="F167">
-        <v>289.3218994140625</v>
+        <v>289.0532531738281</v>
       </c>
       <c r="G167">
         <v>-2.514697343303455</v>
@@ -5241,7 +5241,7 @@
         <v>3.065985608365474</v>
       </c>
       <c r="I167">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5252,16 +5252,16 @@
         <v>82</v>
       </c>
       <c r="C168">
-        <v>238.7966334311714</v>
+        <v>233.7345955642441</v>
       </c>
       <c r="D168">
-        <v>26.2003059387207</v>
+        <v>25.88144683837891</v>
       </c>
       <c r="E168">
         <v>490.2055269807897</v>
       </c>
       <c r="F168">
-        <v>67.35569763183594</v>
+        <v>68.18551635742188</v>
       </c>
       <c r="G168">
         <v>1.944243625895261</v>
@@ -5270,7 +5270,7 @@
         <v>-2.419328873481414</v>
       </c>
       <c r="I168">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5299,7 +5299,7 @@
         <v>-5.772312393461049</v>
       </c>
       <c r="I169">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Simulador/res_sim_ori.xlsx
+++ b/Simulador/res_sim_ori.xlsx
@@ -2874,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>214.047978155085</v>
+        <v>217.3237578947572</v>
       </c>
       <c r="D86">
-        <v>26.97741508483887</v>
+        <v>27.18445777893066</v>
       </c>
       <c r="E86">
         <v>344.0415503671599</v>
       </c>
       <c r="F86">
-        <v>45.91061019897461</v>
+        <v>45.56094360351562</v>
       </c>
       <c r="G86">
         <v>1.596116034322399</v>
@@ -2892,7 +2892,7 @@
         <v>3.492272793926644</v>
       </c>
       <c r="I86">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2921,7 +2921,7 @@
         <v>1.57454844203958</v>
       </c>
       <c r="I87">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2932,16 +2932,16 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>206.2004879056706</v>
+        <v>204.7596666005107</v>
       </c>
       <c r="D88">
-        <v>32.43869400024414</v>
+        <v>32.34762954711914</v>
       </c>
       <c r="E88">
         <v>168.9935131340457</v>
       </c>
       <c r="F88">
-        <v>18.75465774536133</v>
+        <v>18.80745697021484</v>
       </c>
       <c r="G88">
         <v>0.3711593507547151</v>
@@ -2950,7 +2950,7 @@
         <v>1.731397461341183</v>
       </c>
       <c r="I88">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2979,7 +2979,7 @@
         <v>1.57520843538257</v>
       </c>
       <c r="I89">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2990,16 +2990,16 @@
         <v>4</v>
       </c>
       <c r="C90">
-        <v>202.4453253881302</v>
+        <v>198.2803155278839</v>
       </c>
       <c r="D90">
-        <v>33.8776741027832</v>
+        <v>33.61442947387695</v>
       </c>
       <c r="E90">
         <v>48.49833201473393</v>
       </c>
       <c r="F90">
-        <v>5.153659343719482</v>
+        <v>5.194019317626953</v>
       </c>
       <c r="G90">
         <v>0.07414374889212304</v>
@@ -3008,7 +3008,7 @@
         <v>3.40763809526817</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3019,16 +3019,16 @@
         <v>5</v>
       </c>
       <c r="C91">
-        <v>198.0816970944815</v>
+        <v>202.1976258705994</v>
       </c>
       <c r="D91">
-        <v>33.99521636962891</v>
+        <v>34.2553596496582</v>
       </c>
       <c r="E91">
         <v>15.03489657772798</v>
       </c>
       <c r="F91">
-        <v>1.592154145240784</v>
+        <v>1.580062985420227</v>
       </c>
       <c r="G91">
         <v>-0.01674270518462065</v>
@@ -3037,7 +3037,7 @@
         <v>2.835582102804634</v>
       </c>
       <c r="I91">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3048,16 +3048,16 @@
         <v>6</v>
       </c>
       <c r="C92">
-        <v>209.7587838754064</v>
+        <v>194.1475424770782</v>
       </c>
       <c r="D92">
-        <v>33.61726379394531</v>
+        <v>32.63055419921875</v>
       </c>
       <c r="E92">
         <v>55.21180257348544</v>
       </c>
       <c r="F92">
-        <v>5.912512302398682</v>
+        <v>6.091300010681152</v>
       </c>
       <c r="G92">
         <v>0.2477469273428186</v>
@@ -3066,7 +3066,7 @@
         <v>4.760357197651417</v>
       </c>
       <c r="I92">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3077,16 +3077,16 @@
         <v>7</v>
       </c>
       <c r="C93">
-        <v>152.7392001620819</v>
+        <v>149.9973501570169</v>
       </c>
       <c r="D93">
-        <v>42.70247650146484</v>
+        <v>42.5806770324707</v>
       </c>
       <c r="E93">
         <v>560.0692098765884</v>
       </c>
       <c r="F93">
-        <v>47.21620941162109</v>
+        <v>47.35127258300781</v>
       </c>
       <c r="G93">
         <v>-2.435372970096637</v>
@@ -3095,7 +3095,7 @@
         <v>3.98256430003651</v>
       </c>
       <c r="I93">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3124,7 +3124,7 @@
         <v>-3.902847856084686</v>
       </c>
       <c r="I94">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3135,16 +3135,16 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>200.828139993588</v>
+        <v>210.2419714782921</v>
       </c>
       <c r="D95">
-        <v>34.23147583007812</v>
+        <v>34.82646942138672</v>
       </c>
       <c r="E95">
         <v>199.1265320145867</v>
       </c>
       <c r="F95">
-        <v>20.94141387939453</v>
+        <v>20.58363914489746</v>
       </c>
       <c r="G95">
         <v>-0.1659918344285073</v>
@@ -3153,7 +3153,7 @@
         <v>-3.39453113286161</v>
       </c>
       <c r="I95">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3164,16 +3164,16 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>212.6071895503695</v>
+        <v>214.0264894498923</v>
       </c>
       <c r="D96">
-        <v>32.96591567993164</v>
+        <v>33.05561828613281</v>
       </c>
       <c r="E96">
         <v>91.86067101041317</v>
       </c>
       <c r="F96">
-        <v>10.03152561187744</v>
+        <v>10.00430297851562</v>
       </c>
       <c r="G96">
         <v>0.2482922711943954</v>
@@ -3182,7 +3182,7 @@
         <v>-2.756201684925812</v>
       </c>
       <c r="I96">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3193,16 +3193,16 @@
         <v>11</v>
       </c>
       <c r="C97">
-        <v>198.0122294824504</v>
+        <v>196.6821071876259</v>
       </c>
       <c r="D97">
-        <v>34.76255798339844</v>
+        <v>34.67848587036133</v>
       </c>
       <c r="E97">
         <v>13.58046852523921</v>
       </c>
       <c r="F97">
-        <v>1.406389117240906</v>
+        <v>1.409798741340637</v>
       </c>
       <c r="G97">
         <v>-0.2461488251019247</v>
@@ -3211,7 +3211,7 @@
         <v>-0.6139341684454964</v>
       </c>
       <c r="I97">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3222,16 +3222,16 @@
         <v>12</v>
       </c>
       <c r="C98">
-        <v>255.7888691232266</v>
+        <v>248.3795926524217</v>
       </c>
       <c r="D98">
-        <v>21.05522346496582</v>
+        <v>20.65255737304688</v>
       </c>
       <c r="E98">
         <v>1755.103346009126</v>
       </c>
       <c r="F98">
-        <v>300.0857238769531</v>
+        <v>305.9365539550781</v>
       </c>
       <c r="G98">
         <v>3.32023723483058</v>
@@ -3240,7 +3240,7 @@
         <v>-2.486692203613646</v>
       </c>
       <c r="I98">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3269,7 +3269,7 @@
         <v>-4.904003908876237</v>
       </c>
       <c r="I99">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3280,16 +3280,16 @@
         <v>14</v>
       </c>
       <c r="C100">
-        <v>209.9660969794662</v>
+        <v>222.7108238046733</v>
       </c>
       <c r="D100">
-        <v>32.97276306152344</v>
+        <v>33.77034759521484</v>
       </c>
       <c r="E100">
         <v>18.32142955760628</v>
       </c>
       <c r="F100">
-        <v>2.000352382659912</v>
+        <v>1.953108310699463</v>
       </c>
       <c r="G100">
         <v>0.1052479458827658</v>
@@ -3298,7 +3298,7 @@
         <v>-5.685938728369462</v>
       </c>
       <c r="I100">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3309,16 +3309,16 @@
         <v>15</v>
       </c>
       <c r="C101">
-        <v>177.5893057174293</v>
+        <v>164.5624438988838</v>
       </c>
       <c r="D101">
-        <v>41.86480331420898</v>
+        <v>41.17624664306641</v>
       </c>
       <c r="E101">
         <v>778.6626264767738</v>
       </c>
       <c r="F101">
-        <v>66.95804595947266</v>
+        <v>68.07772827148438</v>
       </c>
       <c r="G101">
         <v>-2.347143802750921</v>
@@ -3327,7 +3327,7 @@
         <v>-5.184267536920604</v>
       </c>
       <c r="I101">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3338,16 +3338,16 @@
         <v>16</v>
       </c>
       <c r="C102">
-        <v>212.3321146756272</v>
+        <v>209.414647058288</v>
       </c>
       <c r="D102">
-        <v>31.97517776489258</v>
+        <v>31.7907772064209</v>
       </c>
       <c r="E102">
         <v>118.2246671331604</v>
       </c>
       <c r="F102">
-        <v>13.3105993270874</v>
+        <v>13.38780784606934</v>
       </c>
       <c r="G102">
         <v>0.4746819056162278</v>
@@ -3356,7 +3356,7 @@
         <v>-1.272944327177375</v>
       </c>
       <c r="I102">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3367,16 +3367,16 @@
         <v>17</v>
       </c>
       <c r="C103">
-        <v>175.1221506115912</v>
+        <v>177.0045805365757</v>
       </c>
       <c r="D103">
-        <v>41.56028366088867</v>
+        <v>41.65996932983398</v>
       </c>
       <c r="E103">
         <v>2858.371279980439</v>
       </c>
       <c r="F103">
-        <v>247.5954437255859</v>
+        <v>247.0029754638672</v>
       </c>
       <c r="G103">
         <v>-2.290160995983005</v>
@@ -3385,7 +3385,7 @@
         <v>-4.949172023586057</v>
       </c>
       <c r="I103">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3414,7 +3414,7 @@
         <v>-9.70486363213517</v>
       </c>
       <c r="I104">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3443,7 +3443,7 @@
         <v>-9.861219867994032</v>
       </c>
       <c r="I105">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3472,7 +3472,7 @@
         <v>-9.279345091961993</v>
       </c>
       <c r="I106">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3501,7 +3501,7 @@
         <v>-9.238281327998019</v>
       </c>
       <c r="I107">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3530,7 +3530,7 @@
         <v>-9.954147471937697</v>
       </c>
       <c r="I108">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3541,16 +3541,16 @@
         <v>23</v>
       </c>
       <c r="C109">
-        <v>196.5049447346427</v>
+        <v>191.1916136342531</v>
       </c>
       <c r="D109">
-        <v>32.82389068603516</v>
+        <v>32.48984909057617</v>
       </c>
       <c r="E109">
         <v>229.7816471182123</v>
       </c>
       <c r="F109">
-        <v>25.20158004760742</v>
+        <v>25.4606876373291</v>
       </c>
       <c r="G109">
         <v>-0.2558670563346051</v>
@@ -3559,7 +3559,7 @@
         <v>-9.022411740833657</v>
       </c>
       <c r="I109">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3588,7 +3588,7 @@
         <v>-8.465904839481219</v>
       </c>
       <c r="I110">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3599,16 +3599,16 @@
         <v>25</v>
       </c>
       <c r="C111">
-        <v>178.0568346019731</v>
+        <v>183.7890546969772</v>
       </c>
       <c r="D111">
-        <v>41.80844497680664</v>
+        <v>42.09845733642578</v>
       </c>
       <c r="E111">
         <v>879.3661789674698</v>
       </c>
       <c r="F111">
-        <v>75.71958160400391</v>
+        <v>75.19795989990234</v>
       </c>
       <c r="G111">
         <v>-2.562822532464561</v>
@@ -3617,7 +3617,7 @@
         <v>-9.450384387180872</v>
       </c>
       <c r="I111">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3646,7 +3646,7 @@
         <v>-9.945059851748946</v>
       </c>
       <c r="I112">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3675,7 +3675,7 @@
         <v>-9.385389381431935</v>
       </c>
       <c r="I113">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3704,7 +3704,7 @@
         <v>-6.42479720367449</v>
       </c>
       <c r="I114">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3715,16 +3715,16 @@
         <v>29</v>
       </c>
       <c r="C115">
-        <v>136.6011885217094</v>
+        <v>139.6808095333958</v>
       </c>
       <c r="D115">
-        <v>45.31850814819336</v>
+        <v>45.4494743347168</v>
       </c>
       <c r="E115">
         <v>561.0455563968753</v>
       </c>
       <c r="F115">
-        <v>44.56818771362305</v>
+        <v>44.43976211547852</v>
       </c>
       <c r="G115">
         <v>-3.228726121143762</v>
@@ -3733,7 +3733,7 @@
         <v>4.029840037148754</v>
       </c>
       <c r="I115">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3744,16 +3744,16 @@
         <v>30</v>
       </c>
       <c r="C116">
-        <v>209.3663311244463</v>
+        <v>179.9038145684369</v>
       </c>
       <c r="D116">
-        <v>32.31621170043945</v>
+        <v>30.45403099060059</v>
       </c>
       <c r="E116">
         <v>104.9411033259221</v>
       </c>
       <c r="F116">
-        <v>11.690354347229</v>
+        <v>12.40518665313721</v>
       </c>
       <c r="G116">
         <v>0.5587509355297379</v>
@@ -3762,7 +3762,7 @@
         <v>7.35038777279619</v>
       </c>
       <c r="I116">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3773,16 +3773,16 @@
         <v>31</v>
       </c>
       <c r="C117">
-        <v>165.171491212528</v>
+        <v>157.68203392561</v>
       </c>
       <c r="D117">
-        <v>41.56807327270508</v>
+        <v>41.19766235351562</v>
       </c>
       <c r="E117">
         <v>442.239946164329</v>
       </c>
       <c r="F117">
-        <v>38.3001594543457</v>
+        <v>38.6445198059082</v>
       </c>
       <c r="G117">
         <v>-2.31687999893804</v>
@@ -3791,7 +3791,7 @@
         <v>-2.995590014584259</v>
       </c>
       <c r="I117">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3802,16 +3802,16 @@
         <v>32</v>
       </c>
       <c r="C118">
-        <v>249.9296471820358</v>
+        <v>253.7037216143222</v>
       </c>
       <c r="D118">
-        <v>19.27522468566895</v>
+        <v>19.48033142089844</v>
       </c>
       <c r="E118">
         <v>803.8684356637259</v>
       </c>
       <c r="F118">
-        <v>150.1370849609375</v>
+        <v>148.5563049316406</v>
       </c>
       <c r="G118">
         <v>3.67386674782785</v>
@@ -3820,7 +3820,7 @@
         <v>1.64528195886503</v>
       </c>
       <c r="I118">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3831,16 +3831,16 @@
         <v>33</v>
       </c>
       <c r="C119">
-        <v>178.5647259816962</v>
+        <v>179.7118444259558</v>
       </c>
       <c r="D119">
-        <v>38.26173782348633</v>
+        <v>38.32610702514648</v>
       </c>
       <c r="E119">
         <v>225.0946341554045</v>
       </c>
       <c r="F119">
-        <v>21.17887878417969</v>
+        <v>21.14330673217773</v>
       </c>
       <c r="G119">
         <v>-1.214580773440048</v>
@@ -3849,7 +3849,7 @@
         <v>0.03624061437360713</v>
       </c>
       <c r="I119">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3860,16 +3860,16 @@
         <v>34</v>
       </c>
       <c r="C120">
-        <v>251.3450245960034</v>
+        <v>255.1095705474378</v>
       </c>
       <c r="D120">
-        <v>19.54996109008789</v>
+        <v>19.75454711914062</v>
       </c>
       <c r="E120">
         <v>1544.238605138566</v>
       </c>
       <c r="F120">
-        <v>284.3616333007812</v>
+        <v>281.4166870117188</v>
       </c>
       <c r="G120">
         <v>3.623477518515383</v>
@@ -3878,7 +3878,7 @@
         <v>-1.280216372607037</v>
       </c>
       <c r="I120">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3889,16 +3889,16 @@
         <v>35</v>
       </c>
       <c r="C121">
-        <v>158.2100472575905</v>
+        <v>157.2779467850146</v>
       </c>
       <c r="D121">
-        <v>42.13228607177734</v>
+        <v>42.09088134765625</v>
       </c>
       <c r="E121">
         <v>916.9238501302698</v>
       </c>
       <c r="F121">
-        <v>78.34670257568359</v>
+        <v>78.42377471923828</v>
       </c>
       <c r="G121">
         <v>-2.338576875737777</v>
@@ -3907,7 +3907,7 @@
         <v>1.418178375911533</v>
       </c>
       <c r="I121">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3918,16 +3918,16 @@
         <v>36</v>
       </c>
       <c r="C122">
-        <v>203.3474914139706</v>
+        <v>221.9048797289773</v>
       </c>
       <c r="D122">
-        <v>32.58233261108398</v>
+        <v>33.74606323242188</v>
       </c>
       <c r="E122">
         <v>30.13365751333913</v>
       </c>
       <c r="F122">
-        <v>3.329447507858276</v>
+        <v>3.2146315574646</v>
       </c>
       <c r="G122">
         <v>0.04705830724490476</v>
@@ -3936,7 +3936,7 @@
         <v>-6.504653418974739</v>
       </c>
       <c r="I122">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3947,16 +3947,16 @@
         <v>37</v>
       </c>
       <c r="C123">
-        <v>196.6319458077898</v>
+        <v>197.9099258641761</v>
       </c>
       <c r="D123">
-        <v>35.53152084350586</v>
+        <v>35.60295104980469</v>
       </c>
       <c r="E123">
         <v>46.67657954138122</v>
       </c>
       <c r="F123">
-        <v>4.72920036315918</v>
+        <v>4.719712257385254</v>
       </c>
       <c r="G123">
         <v>-0.5267327097768739</v>
@@ -3965,7 +3965,7 @@
         <v>-4.414407877173214</v>
       </c>
       <c r="I123">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3976,16 +3976,16 @@
         <v>38</v>
       </c>
       <c r="C124">
-        <v>231.6992814682062</v>
+        <v>236.8549293486662</v>
       </c>
       <c r="D124">
-        <v>25.18825912475586</v>
+        <v>25.51411819458008</v>
       </c>
       <c r="E124">
         <v>1452.278941769579</v>
       </c>
       <c r="F124">
-        <v>207.5651245117188</v>
+        <v>204.9141540527344</v>
       </c>
       <c r="G124">
         <v>2.176018014218581</v>
@@ -3994,7 +3994,7 @@
         <v>3.558546856154219</v>
       </c>
       <c r="I124">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4023,7 +4023,7 @@
         <v>1.146574443400988</v>
       </c>
       <c r="I125">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4034,16 +4034,16 @@
         <v>40</v>
       </c>
       <c r="C126">
-        <v>174.7051930727587</v>
+        <v>179.9968553268565</v>
       </c>
       <c r="D126">
-        <v>31.96281242370605</v>
+        <v>32.33523559570312</v>
       </c>
       <c r="E126">
         <v>17.42441686837992</v>
       </c>
       <c r="F126">
-        <v>1.962527632713318</v>
+        <v>1.939924120903015</v>
       </c>
       <c r="G126">
         <v>0.2506431481089307</v>
@@ -4052,7 +4052,7 @@
         <v>9.997376345115907</v>
       </c>
       <c r="I126">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4063,16 +4063,16 @@
         <v>41</v>
       </c>
       <c r="C127">
-        <v>170.1119185630267</v>
+        <v>177.9025666447569</v>
       </c>
       <c r="D127">
-        <v>33.19799423217773</v>
+        <v>33.73945236206055</v>
       </c>
       <c r="E127">
         <v>17.19116230919826</v>
       </c>
       <c r="F127">
-        <v>1.864214420318604</v>
+        <v>1.834297180175781</v>
       </c>
       <c r="G127">
         <v>-0.08132546284821182</v>
@@ -4081,7 +4081,7 @@
         <v>9.135520449007458</v>
       </c>
       <c r="I127">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4092,16 +4092,16 @@
         <v>42</v>
       </c>
       <c r="C128">
-        <v>236.444568499365</v>
+        <v>249.3489983864139</v>
       </c>
       <c r="D128">
-        <v>20.48590660095215</v>
+        <v>21.14395141601562</v>
       </c>
       <c r="E128">
         <v>919.7985693233386</v>
       </c>
       <c r="F128">
-        <v>161.63671875</v>
+        <v>156.6062469482422</v>
       </c>
       <c r="G128">
         <v>3.234936644182395</v>
@@ -4110,7 +4110,7 @@
         <v>3.212140446956366</v>
       </c>
       <c r="I128">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4121,16 +4121,16 @@
         <v>43</v>
       </c>
       <c r="C129">
-        <v>153.6559369519699</v>
+        <v>142.8487049681554</v>
       </c>
       <c r="D129">
-        <v>41.29194641113281</v>
+        <v>40.56056976318359</v>
       </c>
       <c r="E129">
         <v>551.9324064875545</v>
       </c>
       <c r="F129">
-        <v>48.11971664428711</v>
+        <v>48.98739624023438</v>
       </c>
       <c r="G129">
         <v>-1.941400280353867</v>
@@ -4139,7 +4139,7 @@
         <v>8.736348125741674</v>
       </c>
       <c r="I129">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4150,16 +4150,16 @@
         <v>44</v>
       </c>
       <c r="C130">
-        <v>206.6633121248344</v>
+        <v>212.4454881299296</v>
       </c>
       <c r="D130">
-        <v>33.28225708007812</v>
+        <v>33.65685653686523</v>
       </c>
       <c r="E130">
         <v>207.6893822174316</v>
       </c>
       <c r="F130">
-        <v>22.46487617492676</v>
+        <v>22.21484184265137</v>
       </c>
       <c r="G130">
         <v>0.3983383409993186</v>
@@ -4168,7 +4168,7 @@
         <v>9.769148550392874</v>
       </c>
       <c r="I130">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4179,16 +4179,16 @@
         <v>45</v>
       </c>
       <c r="C131">
-        <v>148.9825704054745</v>
+        <v>155.4427681289725</v>
       </c>
       <c r="D131">
-        <v>42.18711471557617</v>
+        <v>42.47409439086914</v>
       </c>
       <c r="E131">
         <v>938.7045830726238</v>
       </c>
       <c r="F131">
-        <v>80.10352325439453</v>
+        <v>79.56229400634766</v>
       </c>
       <c r="G131">
         <v>-2.387654775159163</v>
@@ -4197,7 +4197,7 @@
         <v>3.048267834828779</v>
       </c>
       <c r="I131">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4208,16 +4208,16 @@
         <v>46</v>
       </c>
       <c r="C132">
-        <v>203.915781494023</v>
+        <v>174.5347071149532</v>
       </c>
       <c r="D132">
-        <v>33.90174865722656</v>
+        <v>31.97195625305176</v>
       </c>
       <c r="E132">
         <v>25.27869677441049</v>
       </c>
       <c r="F132">
-        <v>2.684324741363525</v>
+        <v>2.846347808837891</v>
       </c>
       <c r="G132">
         <v>0.2381323032010778</v>
@@ -4226,7 +4226,7 @@
         <v>9.671196658366</v>
       </c>
       <c r="I132">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4237,16 +4237,16 @@
         <v>47</v>
       </c>
       <c r="C133">
-        <v>137.3423971274795</v>
+        <v>140.8318539300991</v>
       </c>
       <c r="D133">
-        <v>41.8292236328125</v>
+        <v>42.04850769042969</v>
       </c>
       <c r="E133">
         <v>710.8830771958565</v>
       </c>
       <c r="F133">
-        <v>61.18160247802734</v>
+        <v>60.8625373840332</v>
       </c>
       <c r="G133">
         <v>-2.316807924352409</v>
@@ -4255,7 +4255,7 @@
         <v>6.329466394030306</v>
       </c>
       <c r="I133">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4266,16 +4266,16 @@
         <v>48</v>
       </c>
       <c r="C134">
-        <v>187.6193186265334</v>
+        <v>198.8946582703525</v>
       </c>
       <c r="D134">
-        <v>32.92135620117188</v>
+        <v>33.65182113647461</v>
       </c>
       <c r="E134">
         <v>13.61530962919642</v>
       </c>
       <c r="F134">
-        <v>1.488854646682739</v>
+        <v>1.456536650657654</v>
       </c>
       <c r="G134">
         <v>0.1923887149861216</v>
@@ -4284,7 +4284,7 @@
         <v>8.616249065587811</v>
       </c>
       <c r="I134">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4313,7 +4313,7 @@
         <v>9.478193265144439</v>
       </c>
       <c r="I135">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4324,16 +4324,16 @@
         <v>50</v>
       </c>
       <c r="C136">
-        <v>235.8415663915017</v>
+        <v>213.8520578460609</v>
       </c>
       <c r="D136">
-        <v>26.8163890838623</v>
+        <v>25.42654800415039</v>
       </c>
       <c r="E136">
         <v>435.5356769315731</v>
       </c>
       <c r="F136">
-        <v>58.46903610229492</v>
+        <v>61.66501235961914</v>
       </c>
       <c r="G136">
         <v>1.974519515110574</v>
@@ -4342,7 +4342,7 @@
         <v>6.773746381148227</v>
       </c>
       <c r="I136">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4353,16 +4353,16 @@
         <v>51</v>
       </c>
       <c r="C137">
-        <v>115.5146219195906</v>
+        <v>108.9966061880305</v>
       </c>
       <c r="D137">
-        <v>48.4605598449707</v>
+        <v>48.79267501831055</v>
       </c>
       <c r="E137">
         <v>1558.661065889315</v>
       </c>
       <c r="F137">
-        <v>115.7885818481445</v>
+        <v>115.0004501342773</v>
       </c>
       <c r="G137">
         <v>-4.645913252401428</v>
@@ -4371,7 +4371,7 @@
         <v>9.100209265993705</v>
       </c>
       <c r="I137">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4382,16 +4382,16 @@
         <v>52</v>
       </c>
       <c r="C138">
-        <v>221.3323283990086</v>
+        <v>236.6257083510855</v>
       </c>
       <c r="D138">
-        <v>25.83668327331543</v>
+        <v>26.80330085754395</v>
       </c>
       <c r="E138">
         <v>755.2700581801146</v>
       </c>
       <c r="F138">
-        <v>105.2368927001953</v>
+        <v>101.4416885375977</v>
       </c>
       <c r="G138">
         <v>2.031562830371228</v>
@@ -4400,7 +4400,7 @@
         <v>8.803832620215976</v>
       </c>
       <c r="I138">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4411,16 +4411,16 @@
         <v>53</v>
       </c>
       <c r="C139">
-        <v>147.9200776815112</v>
+        <v>146.1925760631464</v>
       </c>
       <c r="D139">
-        <v>43.42221450805664</v>
+        <v>43.34547424316406</v>
       </c>
       <c r="E139">
         <v>1264.899823143351</v>
       </c>
       <c r="F139">
-        <v>104.8688812255859</v>
+        <v>105.0545425415039</v>
       </c>
       <c r="G139">
         <v>-2.706180481819132</v>
@@ -4429,7 +4429,7 @@
         <v>2.715786035652243</v>
       </c>
       <c r="I139">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4440,16 +4440,16 @@
         <v>54</v>
       </c>
       <c r="C140">
-        <v>204.3318717681407</v>
+        <v>205.7392644122634</v>
       </c>
       <c r="D140">
-        <v>32.97794342041016</v>
+        <v>33.06689834594727</v>
       </c>
       <c r="E140">
         <v>12.47517702549885</v>
       </c>
       <c r="F140">
-        <v>1.361838579177856</v>
+        <v>1.358175039291382</v>
       </c>
       <c r="G140">
         <v>0.1809728507841649</v>
@@ -4458,7 +4458,7 @@
         <v>-0.9691183484051571</v>
       </c>
       <c r="I140">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4469,16 +4469,16 @@
         <v>55</v>
       </c>
       <c r="C141">
-        <v>200.8073296666729</v>
+        <v>202.1519566930756</v>
       </c>
       <c r="D141">
-        <v>34.40757369995117</v>
+        <v>34.49256134033203</v>
       </c>
       <c r="E141">
         <v>25.59575949009377</v>
       </c>
       <c r="F141">
-        <v>2.678036451339722</v>
+        <v>2.671437740325928</v>
       </c>
       <c r="G141">
         <v>-0.1671179263512283</v>
@@ -4487,7 +4487,7 @@
         <v>-1.836499198479489</v>
       </c>
       <c r="I141">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4516,7 +4516,7 @@
         <v>-1.530310538753543</v>
       </c>
       <c r="I142">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4527,16 +4527,16 @@
         <v>57</v>
       </c>
       <c r="C143">
-        <v>202.2231268443722</v>
+        <v>200.8508955759284</v>
       </c>
       <c r="D143">
-        <v>33.80237197875977</v>
+        <v>33.71564102172852</v>
       </c>
       <c r="E143">
         <v>12.5971306548563</v>
       </c>
       <c r="F143">
-        <v>1.341611981391907</v>
+        <v>1.345063328742981</v>
       </c>
       <c r="G143">
         <v>-0.01533163524593177</v>
@@ -4545,7 +4545,7 @@
         <v>-1.223801256598705</v>
       </c>
       <c r="I143">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4556,16 +4556,16 @@
         <v>58</v>
       </c>
       <c r="C144">
-        <v>201.6663910932875</v>
+        <v>203.0468596901894</v>
       </c>
       <c r="D144">
-        <v>33.52884674072266</v>
+        <v>33.6161003112793</v>
       </c>
       <c r="E144">
         <v>23.20820445037316</v>
       </c>
       <c r="F144">
-        <v>2.491870164871216</v>
+        <v>2.485402345657349</v>
       </c>
       <c r="G144">
         <v>0.03034269269324871</v>
@@ -4574,7 +4574,7 @@
         <v>-1.305201694265891</v>
       </c>
       <c r="I144">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4585,16 +4585,16 @@
         <v>59</v>
       </c>
       <c r="C145">
-        <v>202.2166817268425</v>
+        <v>199.4995197124495</v>
       </c>
       <c r="D145">
-        <v>34.13421630859375</v>
+        <v>33.96247863769531</v>
       </c>
       <c r="E145">
         <v>34.456874764448</v>
       </c>
       <c r="F145">
-        <v>3.634029626846313</v>
+        <v>3.652405738830566</v>
       </c>
       <c r="G145">
         <v>-0.09062660158489143</v>
@@ -4603,7 +4603,7 @@
         <v>-1.639802592446514</v>
       </c>
       <c r="I145">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4632,7 +4632,7 @@
         <v>-1.095450470097568</v>
       </c>
       <c r="I146">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4643,16 +4643,16 @@
         <v>61</v>
       </c>
       <c r="C147">
-        <v>199.9168610493481</v>
+        <v>202.6424542018602</v>
       </c>
       <c r="D147">
-        <v>33.90943145751953</v>
+        <v>34.08169937133789</v>
       </c>
       <c r="E147">
         <v>21.47750869284573</v>
       </c>
       <c r="F147">
-        <v>2.280163049697876</v>
+        <v>2.268637657165527</v>
       </c>
       <c r="G147">
         <v>-0.06742437242755824</v>
@@ -4661,7 +4661,7 @@
         <v>-1.303367942610337</v>
       </c>
       <c r="I147">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4672,16 +4672,16 @@
         <v>62</v>
       </c>
       <c r="C148">
-        <v>218.986102144562</v>
+        <v>210.3513674448669</v>
       </c>
       <c r="D148">
-        <v>32.77455139160156</v>
+        <v>32.22879028320312</v>
       </c>
       <c r="E148">
         <v>219.7798828132327</v>
       </c>
       <c r="F148">
-        <v>24.14091110229492</v>
+        <v>24.54971122741699</v>
       </c>
       <c r="G148">
         <v>0.3614021000029659</v>
@@ -4690,7 +4690,7 @@
         <v>-2.996890153055212</v>
       </c>
       <c r="I148">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4701,16 +4701,16 @@
         <v>63</v>
       </c>
       <c r="C149">
-        <v>161.9518584640765</v>
+        <v>150.1490235206237</v>
       </c>
       <c r="D149">
-        <v>43.17078018188477</v>
+        <v>42.64833068847656</v>
       </c>
       <c r="E149">
         <v>570.7407078778269</v>
       </c>
       <c r="F149">
-        <v>47.59391784667969</v>
+        <v>48.17695236206055</v>
       </c>
       <c r="G149">
         <v>-2.819358949109247</v>
@@ -4719,7 +4719,7 @@
         <v>-4.047118092241034</v>
       </c>
       <c r="I149">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4730,16 +4730,16 @@
         <v>64</v>
       </c>
       <c r="C150">
-        <v>222.6789171192806</v>
+        <v>221.1021279480878</v>
       </c>
       <c r="D150">
-        <v>29.29891204833984</v>
+        <v>29.19924736022949</v>
       </c>
       <c r="E150">
         <v>1701.564347687097</v>
       </c>
       <c r="F150">
-        <v>209.0736846923828</v>
+        <v>209.7873229980469</v>
       </c>
       <c r="G150">
         <v>1.192672554068895</v>
@@ -4748,7 +4748,7 @@
         <v>1.224496329143648</v>
       </c>
       <c r="I150">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4759,16 +4759,16 @@
         <v>65</v>
       </c>
       <c r="C151">
-        <v>159.2816214104639</v>
+        <v>158.3388051963592</v>
       </c>
       <c r="D151">
-        <v>41.8033561706543</v>
+        <v>41.761474609375</v>
       </c>
       <c r="E151">
         <v>1238.094529523736</v>
       </c>
       <c r="F151">
-        <v>106.6215896606445</v>
+        <v>106.728515625</v>
       </c>
       <c r="G151">
         <v>-2.281667608214841</v>
@@ -4777,7 +4777,7 @@
         <v>0.5497540025124052</v>
       </c>
       <c r="I151">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4806,7 +4806,7 @@
         <v>1.309943888990366</v>
       </c>
       <c r="I152">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4817,16 +4817,16 @@
         <v>67</v>
       </c>
       <c r="C153">
-        <v>188.6677900687542</v>
+        <v>193.4704226927835</v>
       </c>
       <c r="D153">
-        <v>36.88650512695312</v>
+        <v>37.15493774414062</v>
       </c>
       <c r="E153">
         <v>292.6010743627921</v>
       </c>
       <c r="F153">
-        <v>28.55688858032227</v>
+        <v>28.35057640075684</v>
       </c>
       <c r="G153">
         <v>-0.9351353751330883</v>
@@ -4835,7 +4835,7 @@
         <v>-4.295350749098601</v>
       </c>
       <c r="I153">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -4864,7 +4864,7 @@
         <v>-0.4008727633516296</v>
       </c>
       <c r="I154">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4893,7 +4893,7 @@
         <v>-2.043470506630904</v>
       </c>
       <c r="I155">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4904,16 +4904,16 @@
         <v>70</v>
       </c>
       <c r="C156">
-        <v>247.575641814349</v>
+        <v>251.2271546506359</v>
       </c>
       <c r="D156">
-        <v>21.66502380371094</v>
+        <v>21.86346626281738</v>
       </c>
       <c r="E156">
         <v>1192.852900399776</v>
       </c>
       <c r="F156">
-        <v>198.2121276855469</v>
+        <v>196.4130554199219</v>
       </c>
       <c r="G156">
         <v>3.068620452199015</v>
@@ -4922,7 +4922,7 @@
         <v>-1.802040962007777</v>
       </c>
       <c r="I156">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4933,16 +4933,16 @@
         <v>71</v>
       </c>
       <c r="C157">
-        <v>204.8415291202417</v>
+        <v>199.4107901252809</v>
       </c>
       <c r="D157">
-        <v>34.31358337402344</v>
+        <v>33.9703369140625</v>
       </c>
       <c r="E157">
         <v>39.58186892988306</v>
       </c>
       <c r="F157">
-        <v>4.15272045135498</v>
+        <v>4.194680690765381</v>
       </c>
       <c r="G157">
         <v>-0.09555382349409856</v>
@@ -4951,7 +4951,7 @@
         <v>-1.742113006776057</v>
       </c>
       <c r="I157">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4980,7 +4980,7 @@
         <v>-1.56225071611269</v>
       </c>
       <c r="I158">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5009,7 +5009,7 @@
         <v>-3.364038488402069</v>
       </c>
       <c r="I159">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5020,16 +5020,16 @@
         <v>74</v>
       </c>
       <c r="C160">
-        <v>208.455472117419</v>
+        <v>205.6967130382379</v>
       </c>
       <c r="D160">
-        <v>33.81798934936523</v>
+        <v>33.64362335205078</v>
       </c>
       <c r="E160">
         <v>35.79399999910675</v>
       </c>
       <c r="F160">
-        <v>3.81035041809082</v>
+        <v>3.830098390579224</v>
       </c>
       <c r="G160">
         <v>0.02429351747549238</v>
@@ -5038,7 +5038,7 @@
         <v>-2.850329613276325</v>
       </c>
       <c r="I160">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5049,16 +5049,16 @@
         <v>75</v>
       </c>
       <c r="C161">
-        <v>197.3815455822572</v>
+        <v>203.6259581097222</v>
       </c>
       <c r="D161">
-        <v>36.20859146118164</v>
+        <v>36.55760955810547</v>
       </c>
       <c r="E161">
         <v>122.4589308720097</v>
       </c>
       <c r="F161">
-        <v>12.17534637451172</v>
+        <v>12.05910682678223</v>
       </c>
       <c r="G161">
         <v>-0.6813108349116376</v>
@@ -5067,7 +5067,7 @@
         <v>-4.546921201111702</v>
       </c>
       <c r="I161">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5096,7 +5096,7 @@
         <v>-0.7150572444261751</v>
       </c>
       <c r="I162">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5125,7 +5125,7 @@
         <v>0.5490306867231698</v>
       </c>
       <c r="I163">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5154,7 +5154,7 @@
         <v>0.02587660591580461</v>
       </c>
       <c r="I164">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5165,16 +5165,16 @@
         <v>79</v>
       </c>
       <c r="C165">
-        <v>219.0362514814714</v>
+        <v>206.3669064248229</v>
       </c>
       <c r="D165">
-        <v>35.21742248535156</v>
+        <v>34.44419097900391</v>
       </c>
       <c r="E165">
         <v>75.08637616922351</v>
       </c>
       <c r="F165">
-        <v>7.675488948822021</v>
+        <v>7.847794532775879</v>
       </c>
       <c r="G165">
         <v>-0.1576901133683288</v>
@@ -5183,7 +5183,7 @@
         <v>-4.258154043925821</v>
       </c>
       <c r="I165">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5194,16 +5194,16 @@
         <v>80</v>
       </c>
       <c r="C166">
-        <v>234.251144803779</v>
+        <v>235.9607523270495</v>
       </c>
       <c r="D166">
-        <v>25.37860107421875</v>
+        <v>25.48665428161621</v>
       </c>
       <c r="E166">
         <v>2427.044252905944</v>
       </c>
       <c r="F166">
-        <v>344.2805480957031</v>
+        <v>342.8209228515625</v>
       </c>
       <c r="G166">
         <v>2.10853553547893</v>
@@ -5212,7 +5212,7 @@
         <v>0.7481270099782461</v>
       </c>
       <c r="I166">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5223,16 +5223,16 @@
         <v>81</v>
       </c>
       <c r="C167">
-        <v>155.8144108079321</v>
+        <v>145.9237324031079</v>
       </c>
       <c r="D167">
-        <v>43.02593994140625</v>
+        <v>42.58656311035156</v>
       </c>
       <c r="E167">
         <v>3454.663685947395</v>
       </c>
       <c r="F167">
-        <v>289.0532531738281</v>
+        <v>292.0354919433594</v>
       </c>
       <c r="G167">
         <v>-2.514697343303455</v>
@@ -5241,7 +5241,7 @@
         <v>3.065985608365474</v>
       </c>
       <c r="I167">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5252,16 +5252,16 @@
         <v>82</v>
       </c>
       <c r="C168">
-        <v>233.7345955642441</v>
+        <v>230.3599036529592</v>
       </c>
       <c r="D168">
-        <v>25.88144683837891</v>
+        <v>25.66887855529785</v>
       </c>
       <c r="E168">
         <v>490.2055269807897</v>
       </c>
       <c r="F168">
-        <v>68.18551635742188</v>
+        <v>68.75017547607422</v>
       </c>
       <c r="G168">
         <v>1.944243625895261</v>
@@ -5270,7 +5270,7 @@
         <v>-2.419328873481414</v>
       </c>
       <c r="I168">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5281,16 +5281,16 @@
         <v>83</v>
       </c>
       <c r="C169">
-        <v>201.7758325287569</v>
+        <v>177.2981362136854</v>
       </c>
       <c r="D169">
-        <v>38.97448348999023</v>
+        <v>37.62138366699219</v>
       </c>
       <c r="E169">
         <v>527.239657418635</v>
       </c>
       <c r="F169">
-        <v>48.70014190673828</v>
+        <v>50.45169830322266</v>
       </c>
       <c r="G169">
         <v>-1.340100708621075</v>
@@ -5299,7 +5299,7 @@
         <v>-5.772312393461049</v>
       </c>
       <c r="I169">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Simulador/res_sim_ori.xlsx
+++ b/Simulador/res_sim_ori.xlsx
@@ -2874,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>217.3237578947572</v>
+        <v>212.4100882852489</v>
       </c>
       <c r="D86">
-        <v>27.18445777893066</v>
+        <v>26.8738899230957</v>
       </c>
       <c r="E86">
         <v>344.0415503671599</v>
       </c>
       <c r="F86">
-        <v>45.56094360351562</v>
+        <v>46.08747100830078</v>
       </c>
       <c r="G86">
         <v>1.596116034322399</v>
@@ -2892,7 +2892,7 @@
         <v>3.492272793926644</v>
       </c>
       <c r="I86">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2921,7 +2921,7 @@
         <v>1.57454844203958</v>
       </c>
       <c r="I87">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2932,16 +2932,16 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>204.7596666005107</v>
+        <v>207.6413092108305</v>
       </c>
       <c r="D88">
-        <v>32.34762954711914</v>
+        <v>32.52976226806641</v>
       </c>
       <c r="E88">
         <v>168.9935131340457</v>
       </c>
       <c r="F88">
-        <v>18.80745697021484</v>
+        <v>18.7021541595459</v>
       </c>
       <c r="G88">
         <v>0.3711593507547151</v>
@@ -2950,7 +2950,7 @@
         <v>1.731397461341183</v>
       </c>
       <c r="I88">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2961,16 +2961,16 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>201.2765503290809</v>
+        <v>199.9137848257901</v>
       </c>
       <c r="D89">
-        <v>34.31356811523438</v>
+        <v>34.22743606567383</v>
       </c>
       <c r="E89">
         <v>17.33180625774378</v>
       </c>
       <c r="F89">
-        <v>1.818362474441528</v>
+        <v>1.822938084602356</v>
       </c>
       <c r="G89">
         <v>-0.0675955599860016</v>
@@ -2979,7 +2979,7 @@
         <v>1.57520843538257</v>
       </c>
       <c r="I89">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2990,16 +2990,16 @@
         <v>4</v>
       </c>
       <c r="C90">
-        <v>198.2803155278839</v>
+        <v>195.5036422877196</v>
       </c>
       <c r="D90">
-        <v>33.61442947387695</v>
+        <v>33.43892669677734</v>
       </c>
       <c r="E90">
         <v>48.49833201473393</v>
       </c>
       <c r="F90">
-        <v>5.194019317626953</v>
+        <v>5.221279621124268</v>
       </c>
       <c r="G90">
         <v>0.07414374889212304</v>
@@ -3008,7 +3008,7 @@
         <v>3.40763809526817</v>
       </c>
       <c r="I90">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3019,16 +3019,16 @@
         <v>5</v>
       </c>
       <c r="C91">
-        <v>202.1976258705994</v>
+        <v>199.4536733531874</v>
       </c>
       <c r="D91">
-        <v>34.2553596496582</v>
+        <v>34.08193588256836</v>
       </c>
       <c r="E91">
         <v>15.03489657772798</v>
       </c>
       <c r="F91">
-        <v>1.580062985420227</v>
+        <v>1.588103055953979</v>
       </c>
       <c r="G91">
         <v>-0.01674270518462065</v>
@@ -3037,7 +3037,7 @@
         <v>2.835582102804634</v>
       </c>
       <c r="I91">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3048,16 +3048,16 @@
         <v>6</v>
       </c>
       <c r="C92">
-        <v>194.1475424770782</v>
+        <v>196.985950004047</v>
       </c>
       <c r="D92">
-        <v>32.63055419921875</v>
+        <v>32.80995559692383</v>
       </c>
       <c r="E92">
         <v>55.21180257348544</v>
       </c>
       <c r="F92">
-        <v>6.091300010681152</v>
+        <v>6.057993412017822</v>
       </c>
       <c r="G92">
         <v>0.2477469273428186</v>
@@ -3066,7 +3066,7 @@
         <v>4.760357197651417</v>
       </c>
       <c r="I92">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3095,7 +3095,7 @@
         <v>3.98256430003651</v>
       </c>
       <c r="I93">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3124,7 +3124,7 @@
         <v>-3.902847856084686</v>
       </c>
       <c r="I94">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3135,16 +3135,16 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>210.2419714782921</v>
+        <v>214.2764706860224</v>
       </c>
       <c r="D95">
-        <v>34.82646942138672</v>
+        <v>35.08147430419922</v>
       </c>
       <c r="E95">
         <v>199.1265320145867</v>
       </c>
       <c r="F95">
-        <v>20.58363914489746</v>
+        <v>20.43401908874512</v>
       </c>
       <c r="G95">
         <v>-0.1659918344285073</v>
@@ -3153,7 +3153,7 @@
         <v>-3.39453113286161</v>
       </c>
       <c r="I95">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3164,16 +3164,16 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>214.0264894498923</v>
+        <v>208.3492898518012</v>
       </c>
       <c r="D96">
-        <v>33.05561828613281</v>
+        <v>32.69679260253906</v>
       </c>
       <c r="E96">
         <v>91.86067101041317</v>
       </c>
       <c r="F96">
-        <v>10.00430297851562</v>
+        <v>10.11409378051758</v>
       </c>
       <c r="G96">
         <v>0.2482922711943954</v>
@@ -3182,7 +3182,7 @@
         <v>-2.756201684925812</v>
       </c>
       <c r="I96">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3193,16 +3193,16 @@
         <v>11</v>
       </c>
       <c r="C97">
-        <v>196.6821071876259</v>
+        <v>198.0122294824504</v>
       </c>
       <c r="D97">
-        <v>34.67848587036133</v>
+        <v>34.76255798339844</v>
       </c>
       <c r="E97">
         <v>13.58046852523921</v>
       </c>
       <c r="F97">
-        <v>1.409798741340637</v>
+        <v>1.406389117240906</v>
       </c>
       <c r="G97">
         <v>-0.2461488251019247</v>
@@ -3211,7 +3211,7 @@
         <v>-0.6139341684454964</v>
       </c>
       <c r="I97">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3240,7 +3240,7 @@
         <v>-2.486692203613646</v>
       </c>
       <c r="I98">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3269,7 +3269,7 @@
         <v>-4.904003908876237</v>
       </c>
       <c r="I99">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3298,7 +3298,7 @@
         <v>-5.685938728369462</v>
       </c>
       <c r="I100">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3309,16 +3309,16 @@
         <v>15</v>
       </c>
       <c r="C101">
-        <v>164.5624438988838</v>
+        <v>160.8404833792993</v>
       </c>
       <c r="D101">
-        <v>41.17624664306641</v>
+        <v>40.97915649414062</v>
       </c>
       <c r="E101">
         <v>778.6626264767738</v>
       </c>
       <c r="F101">
-        <v>68.07772827148438</v>
+        <v>68.40514373779297</v>
       </c>
       <c r="G101">
         <v>-2.347143802750921</v>
@@ -3327,7 +3327,7 @@
         <v>-5.184267536920604</v>
       </c>
       <c r="I101">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3356,7 +3356,7 @@
         <v>-1.272944327177375</v>
       </c>
       <c r="I102">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3367,16 +3367,16 @@
         <v>17</v>
       </c>
       <c r="C103">
-        <v>177.0045805365757</v>
+        <v>173.2397206866067</v>
       </c>
       <c r="D103">
-        <v>41.65996932983398</v>
+        <v>41.46060562133789</v>
       </c>
       <c r="E103">
         <v>2858.371279980439</v>
       </c>
       <c r="F103">
-        <v>247.0029754638672</v>
+        <v>248.1906890869141</v>
       </c>
       <c r="G103">
         <v>-2.290160995983005</v>
@@ -3385,7 +3385,7 @@
         <v>-4.949172023586057</v>
       </c>
       <c r="I103">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3414,7 +3414,7 @@
         <v>-9.70486363213517</v>
       </c>
       <c r="I104">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3425,16 +3425,16 @@
         <v>19</v>
       </c>
       <c r="C105">
-        <v>218.9270994375812</v>
+        <v>194.1141376542186</v>
       </c>
       <c r="D105">
-        <v>33.54227447509766</v>
+        <v>31.98231506347656</v>
       </c>
       <c r="E105">
         <v>30.59651750363264</v>
       </c>
       <c r="F105">
-        <v>3.28383994102478</v>
+        <v>3.444011449813843</v>
       </c>
       <c r="G105">
         <v>-0.1654132108420091</v>
@@ -3443,7 +3443,7 @@
         <v>-9.861219867994032</v>
       </c>
       <c r="I105">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3454,16 +3454,16 @@
         <v>20</v>
       </c>
       <c r="C106">
-        <v>221.5035447084712</v>
+        <v>204.2063978483665</v>
       </c>
       <c r="D106">
-        <v>33.00582122802734</v>
+        <v>31.91837120056152</v>
       </c>
       <c r="E106">
         <v>24.03705720769904</v>
       </c>
       <c r="F106">
-        <v>2.621762037277222</v>
+        <v>2.711084604263306</v>
       </c>
       <c r="G106">
         <v>0.01819589233524954</v>
@@ -3472,7 +3472,7 @@
         <v>-9.279345091961993</v>
       </c>
       <c r="I106">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3501,7 +3501,7 @@
         <v>-9.238281327998019</v>
       </c>
       <c r="I107">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3530,7 +3530,7 @@
         <v>-9.954147471937697</v>
       </c>
       <c r="I108">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3541,16 +3541,16 @@
         <v>23</v>
       </c>
       <c r="C109">
-        <v>191.1916136342531</v>
+        <v>217.6438962575264</v>
       </c>
       <c r="D109">
-        <v>32.48984909057617</v>
+        <v>34.1511116027832</v>
       </c>
       <c r="E109">
         <v>229.7816471182123</v>
       </c>
       <c r="F109">
-        <v>25.4606876373291</v>
+        <v>24.22216796875</v>
       </c>
       <c r="G109">
         <v>-0.2558670563346051</v>
@@ -3559,7 +3559,7 @@
         <v>-9.022411740833657</v>
       </c>
       <c r="I109">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3588,7 +3588,7 @@
         <v>-8.465904839481219</v>
       </c>
       <c r="I110">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3617,7 +3617,7 @@
         <v>-9.450384387180872</v>
       </c>
       <c r="I111">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3646,7 +3646,7 @@
         <v>-9.945059851748946</v>
       </c>
       <c r="I112">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3675,7 +3675,7 @@
         <v>-9.385389381431935</v>
       </c>
       <c r="I113">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3704,7 +3704,7 @@
         <v>-6.42479720367449</v>
       </c>
       <c r="I114">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3715,16 +3715,16 @@
         <v>29</v>
       </c>
       <c r="C115">
-        <v>139.6808095333958</v>
+        <v>135.0613780158662</v>
       </c>
       <c r="D115">
-        <v>45.4494743347168</v>
+        <v>45.25009918212891</v>
       </c>
       <c r="E115">
         <v>561.0455563968753</v>
       </c>
       <c r="F115">
-        <v>44.43976211547852</v>
+        <v>44.63556671142578</v>
       </c>
       <c r="G115">
         <v>-3.228726121143762</v>
@@ -3733,7 +3733,7 @@
         <v>4.029840037148754</v>
       </c>
       <c r="I115">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3744,16 +3744,16 @@
         <v>30</v>
       </c>
       <c r="C116">
-        <v>179.9038145684369</v>
+        <v>178.8324503300365</v>
       </c>
       <c r="D116">
-        <v>30.45403099060059</v>
+        <v>30.38631439208984</v>
       </c>
       <c r="E116">
         <v>104.9411033259221</v>
       </c>
       <c r="F116">
-        <v>12.40518665313721</v>
+        <v>12.43283176422119</v>
       </c>
       <c r="G116">
         <v>0.5587509355297379</v>
@@ -3762,7 +3762,7 @@
         <v>7.35038777279619</v>
       </c>
       <c r="I116">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3773,16 +3773,16 @@
         <v>31</v>
       </c>
       <c r="C117">
-        <v>157.68203392561</v>
+        <v>156.7458517647452</v>
       </c>
       <c r="D117">
-        <v>41.19766235351562</v>
+        <v>41.15621948242188</v>
       </c>
       <c r="E117">
         <v>442.239946164329</v>
       </c>
       <c r="F117">
-        <v>38.6445198059082</v>
+        <v>38.68343353271484</v>
       </c>
       <c r="G117">
         <v>-2.31687999893804</v>
@@ -3791,7 +3791,7 @@
         <v>-2.995590014584259</v>
       </c>
       <c r="I117">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3802,16 +3802,16 @@
         <v>32</v>
       </c>
       <c r="C118">
-        <v>253.7037216143222</v>
+        <v>251.816684398179</v>
       </c>
       <c r="D118">
-        <v>19.48033142089844</v>
+        <v>19.37777900695801</v>
       </c>
       <c r="E118">
         <v>803.8684356637259</v>
       </c>
       <c r="F118">
-        <v>148.5563049316406</v>
+        <v>149.3425140380859</v>
       </c>
       <c r="G118">
         <v>3.67386674782785</v>
@@ -3820,7 +3820,7 @@
         <v>1.64528195886503</v>
       </c>
       <c r="I118">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3849,7 +3849,7 @@
         <v>0.03624061437360713</v>
       </c>
       <c r="I119">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3860,16 +3860,16 @@
         <v>34</v>
       </c>
       <c r="C120">
-        <v>255.1095705474378</v>
+        <v>253.2272975717206</v>
       </c>
       <c r="D120">
-        <v>19.75454711914062</v>
+        <v>19.65225410461426</v>
       </c>
       <c r="E120">
         <v>1544.238605138566</v>
       </c>
       <c r="F120">
-        <v>281.4166870117188</v>
+        <v>282.8815002441406</v>
       </c>
       <c r="G120">
         <v>3.623477518515383</v>
@@ -3878,7 +3878,7 @@
         <v>-1.280216372607037</v>
       </c>
       <c r="I120">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3889,16 +3889,16 @@
         <v>35</v>
       </c>
       <c r="C121">
-        <v>157.2779467850146</v>
+        <v>158.2100472575905</v>
       </c>
       <c r="D121">
-        <v>42.09088134765625</v>
+        <v>42.13228607177734</v>
       </c>
       <c r="E121">
         <v>916.9238501302698</v>
       </c>
       <c r="F121">
-        <v>78.42377471923828</v>
+        <v>78.34670257568359</v>
       </c>
       <c r="G121">
         <v>-2.338576875737777</v>
@@ -3907,7 +3907,7 @@
         <v>1.418178375911533</v>
       </c>
       <c r="I121">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3936,7 +3936,7 @@
         <v>-6.504653418974739</v>
       </c>
       <c r="I122">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3947,16 +3947,16 @@
         <v>37</v>
       </c>
       <c r="C123">
-        <v>197.9099258641761</v>
+        <v>192.7980056386309</v>
       </c>
       <c r="D123">
-        <v>35.60295104980469</v>
+        <v>35.30751037597656</v>
       </c>
       <c r="E123">
         <v>46.67657954138122</v>
       </c>
       <c r="F123">
-        <v>4.719712257385254</v>
+        <v>4.759204864501953</v>
       </c>
       <c r="G123">
         <v>-0.5267327097768739</v>
@@ -3965,7 +3965,7 @@
         <v>-4.414407877173214</v>
       </c>
       <c r="I123">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3976,16 +3976,16 @@
         <v>38</v>
       </c>
       <c r="C124">
-        <v>236.8549293486662</v>
+        <v>221.3879857072862</v>
       </c>
       <c r="D124">
-        <v>25.51411819458008</v>
+        <v>24.53653144836426</v>
       </c>
       <c r="E124">
         <v>1452.278941769579</v>
       </c>
       <c r="F124">
-        <v>204.9141540527344</v>
+        <v>213.078369140625</v>
       </c>
       <c r="G124">
         <v>2.176018014218581</v>
@@ -3994,7 +3994,7 @@
         <v>3.558546856154219</v>
       </c>
       <c r="I124">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4005,16 +4005,16 @@
         <v>39</v>
       </c>
       <c r="C125">
-        <v>195.3906980723375</v>
+        <v>194.073620314031</v>
       </c>
       <c r="D125">
-        <v>35.14591217041016</v>
+        <v>35.06266403198242</v>
       </c>
       <c r="E125">
         <v>340.4292798588431</v>
       </c>
       <c r="F125">
-        <v>34.87021255493164</v>
+        <v>34.9530029296875</v>
       </c>
       <c r="G125">
         <v>-0.3168343342728075</v>
@@ -4023,7 +4023,7 @@
         <v>1.146574443400988</v>
       </c>
       <c r="I125">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4034,16 +4034,16 @@
         <v>40</v>
       </c>
       <c r="C126">
-        <v>179.9968553268565</v>
+        <v>174.7051930727587</v>
       </c>
       <c r="D126">
-        <v>32.33523559570312</v>
+        <v>31.96281242370605</v>
       </c>
       <c r="E126">
         <v>17.42441686837992</v>
       </c>
       <c r="F126">
-        <v>1.939924120903015</v>
+        <v>1.962527632713318</v>
       </c>
       <c r="G126">
         <v>0.2506431481089307</v>
@@ -4052,7 +4052,7 @@
         <v>9.997376345115907</v>
       </c>
       <c r="I126">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4063,16 +4063,16 @@
         <v>41</v>
       </c>
       <c r="C127">
-        <v>177.9025666447569</v>
+        <v>170.1119185630267</v>
       </c>
       <c r="D127">
-        <v>33.73945236206055</v>
+        <v>33.19799423217773</v>
       </c>
       <c r="E127">
         <v>17.19116230919826</v>
       </c>
       <c r="F127">
-        <v>1.834297180175781</v>
+        <v>1.864214420318604</v>
       </c>
       <c r="G127">
         <v>-0.08132546284821182</v>
@@ -4081,7 +4081,7 @@
         <v>9.135520449007458</v>
       </c>
       <c r="I127">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4092,16 +4092,16 @@
         <v>42</v>
       </c>
       <c r="C128">
-        <v>249.3489983864139</v>
+        <v>247.5055084025498</v>
       </c>
       <c r="D128">
-        <v>21.14395141601562</v>
+        <v>21.0499439239502</v>
       </c>
       <c r="E128">
         <v>919.7985693233386</v>
       </c>
       <c r="F128">
-        <v>156.6062469482422</v>
+        <v>157.3056488037109</v>
       </c>
       <c r="G128">
         <v>3.234936644182395</v>
@@ -4110,7 +4110,7 @@
         <v>3.212140446956366</v>
       </c>
       <c r="I128">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4121,16 +4121,16 @@
         <v>43</v>
       </c>
       <c r="C129">
-        <v>142.8487049681554</v>
+        <v>161.7155675839672</v>
       </c>
       <c r="D129">
-        <v>40.56056976318359</v>
+        <v>41.80600738525391</v>
       </c>
       <c r="E129">
         <v>551.9324064875545</v>
       </c>
       <c r="F129">
-        <v>48.98739624023438</v>
+        <v>47.52801895141602</v>
       </c>
       <c r="G129">
         <v>-1.941400280353867</v>
@@ -4139,7 +4139,7 @@
         <v>8.736348125741674</v>
       </c>
       <c r="I129">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4150,16 +4150,16 @@
         <v>44</v>
       </c>
       <c r="C130">
-        <v>212.4454881299296</v>
+        <v>176.7011273711588</v>
       </c>
       <c r="D130">
-        <v>33.65685653686523</v>
+        <v>31.33520698547363</v>
       </c>
       <c r="E130">
         <v>207.6893822174316</v>
       </c>
       <c r="F130">
-        <v>22.21484184265137</v>
+        <v>23.86075592041016</v>
       </c>
       <c r="G130">
         <v>0.3983383409993186</v>
@@ -4168,7 +4168,7 @@
         <v>9.769148550392874</v>
       </c>
       <c r="I130">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4179,16 +4179,16 @@
         <v>45</v>
       </c>
       <c r="C131">
-        <v>155.4427681289725</v>
+        <v>157.2885389071149</v>
       </c>
       <c r="D131">
-        <v>42.47409439086914</v>
+        <v>42.55609512329102</v>
       </c>
       <c r="E131">
         <v>938.7045830726238</v>
       </c>
       <c r="F131">
-        <v>79.56229400634766</v>
+        <v>79.40898895263672</v>
       </c>
       <c r="G131">
         <v>-2.387654775159163</v>
@@ -4197,7 +4197,7 @@
         <v>3.048267834828779</v>
       </c>
       <c r="I131">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4226,7 +4226,7 @@
         <v>9.671196658366</v>
       </c>
       <c r="I132">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4237,16 +4237,16 @@
         <v>47</v>
       </c>
       <c r="C133">
-        <v>140.8318539300991</v>
+        <v>160.491964208273</v>
       </c>
       <c r="D133">
-        <v>42.04850769042969</v>
+        <v>42.92282867431641</v>
       </c>
       <c r="E133">
         <v>710.8830771958565</v>
       </c>
       <c r="F133">
-        <v>60.8625373840332</v>
+        <v>59.62279510498047</v>
       </c>
       <c r="G133">
         <v>-2.316807924352409</v>
@@ -4255,7 +4255,7 @@
         <v>6.329466394030306</v>
       </c>
       <c r="I133">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4266,16 +4266,16 @@
         <v>48</v>
       </c>
       <c r="C134">
-        <v>198.8946582703525</v>
+        <v>173.909530650526</v>
       </c>
       <c r="D134">
-        <v>33.65182113647461</v>
+        <v>32.04615020751953</v>
       </c>
       <c r="E134">
         <v>13.61530962919642</v>
       </c>
       <c r="F134">
-        <v>1.456536650657654</v>
+        <v>1.529516458511353</v>
       </c>
       <c r="G134">
         <v>0.1923887149861216</v>
@@ -4284,7 +4284,7 @@
         <v>8.616249065587811</v>
       </c>
       <c r="I134">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4313,7 +4313,7 @@
         <v>9.478193265144439</v>
       </c>
       <c r="I135">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4324,16 +4324,16 @@
         <v>50</v>
       </c>
       <c r="C136">
-        <v>213.8520578460609</v>
+        <v>230.7670644194769</v>
       </c>
       <c r="D136">
-        <v>25.42654800415039</v>
+        <v>26.49566078186035</v>
       </c>
       <c r="E136">
         <v>435.5356769315731</v>
       </c>
       <c r="F136">
-        <v>61.66501235961914</v>
+        <v>59.17679595947266</v>
       </c>
       <c r="G136">
         <v>1.974519515110574</v>
@@ -4342,7 +4342,7 @@
         <v>6.773746381148227</v>
       </c>
       <c r="I136">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4353,16 +4353,16 @@
         <v>51</v>
       </c>
       <c r="C137">
-        <v>108.9966061880305</v>
+        <v>113.8851179867005</v>
       </c>
       <c r="D137">
-        <v>48.79267501831055</v>
+        <v>48.54358673095703</v>
       </c>
       <c r="E137">
         <v>1558.661065889315</v>
       </c>
       <c r="F137">
-        <v>115.0004501342773</v>
+        <v>115.5905380249023</v>
       </c>
       <c r="G137">
         <v>-4.645913252401428</v>
@@ -4371,7 +4371,7 @@
         <v>9.100209265993705</v>
       </c>
       <c r="I137">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4382,16 +4382,16 @@
         <v>52</v>
       </c>
       <c r="C138">
-        <v>236.6257083510855</v>
+        <v>241.7235016684445</v>
       </c>
       <c r="D138">
-        <v>26.80330085754395</v>
+        <v>27.13228797912598</v>
       </c>
       <c r="E138">
         <v>755.2700581801146</v>
       </c>
       <c r="F138">
-        <v>101.4416885375977</v>
+        <v>100.2116775512695</v>
       </c>
       <c r="G138">
         <v>2.031562830371228</v>
@@ -4400,7 +4400,7 @@
         <v>8.803832620215976</v>
       </c>
       <c r="I138">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4411,16 +4411,16 @@
         <v>53</v>
       </c>
       <c r="C139">
-        <v>146.1925760631464</v>
+        <v>151.3750809182409</v>
       </c>
       <c r="D139">
-        <v>43.34547424316406</v>
+        <v>43.57570266723633</v>
       </c>
       <c r="E139">
         <v>1264.899823143351</v>
       </c>
       <c r="F139">
-        <v>105.0545425415039</v>
+        <v>104.4994964599609</v>
       </c>
       <c r="G139">
         <v>-2.706180481819132</v>
@@ -4429,7 +4429,7 @@
         <v>2.715786035652243</v>
       </c>
       <c r="I139">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4440,16 +4440,16 @@
         <v>54</v>
       </c>
       <c r="C140">
-        <v>205.7392644122634</v>
+        <v>204.3318717681407</v>
       </c>
       <c r="D140">
-        <v>33.06689834594727</v>
+        <v>32.97794342041016</v>
       </c>
       <c r="E140">
         <v>12.47517702549885</v>
       </c>
       <c r="F140">
-        <v>1.358175039291382</v>
+        <v>1.361838579177856</v>
       </c>
       <c r="G140">
         <v>0.1809728507841649</v>
@@ -4458,7 +4458,7 @@
         <v>-0.9691183484051571</v>
       </c>
       <c r="I140">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4469,16 +4469,16 @@
         <v>55</v>
       </c>
       <c r="C141">
-        <v>202.1519566930756</v>
+        <v>199.4627026402702</v>
       </c>
       <c r="D141">
-        <v>34.49256134033203</v>
+        <v>34.32258605957031</v>
       </c>
       <c r="E141">
         <v>25.59575949009377</v>
       </c>
       <c r="F141">
-        <v>2.671437740325928</v>
+        <v>2.684667587280273</v>
       </c>
       <c r="G141">
         <v>-0.1671179263512283</v>
@@ -4487,7 +4487,7 @@
         <v>-1.836499198479489</v>
       </c>
       <c r="I141">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4498,16 +4498,16 @@
         <v>56</v>
       </c>
       <c r="C142">
-        <v>202.897288125262</v>
+        <v>205.6830919257723</v>
       </c>
       <c r="D142">
-        <v>33.23383712768555</v>
+        <v>33.40991973876953</v>
       </c>
       <c r="E142">
         <v>12.64423606528362</v>
       </c>
       <c r="F142">
-        <v>1.369665741920471</v>
+        <v>1.362447023391724</v>
       </c>
       <c r="G142">
         <v>0.0996391493335807</v>
@@ -4516,7 +4516,7 @@
         <v>-1.530310538753543</v>
       </c>
       <c r="I142">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4527,16 +4527,16 @@
         <v>57</v>
       </c>
       <c r="C143">
-        <v>200.8508955759284</v>
+        <v>202.2231268443722</v>
       </c>
       <c r="D143">
-        <v>33.71564102172852</v>
+        <v>33.80237197875977</v>
       </c>
       <c r="E143">
         <v>12.5971306548563</v>
       </c>
       <c r="F143">
-        <v>1.345063328742981</v>
+        <v>1.341611981391907</v>
       </c>
       <c r="G143">
         <v>-0.01533163524593177</v>
@@ -4545,7 +4545,7 @@
         <v>-1.223801256598705</v>
       </c>
       <c r="I143">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4556,16 +4556,16 @@
         <v>58</v>
       </c>
       <c r="C144">
-        <v>203.0468596901894</v>
+        <v>201.6663910932875</v>
       </c>
       <c r="D144">
-        <v>33.6161003112793</v>
+        <v>33.52884674072266</v>
       </c>
       <c r="E144">
         <v>23.20820445037316</v>
       </c>
       <c r="F144">
-        <v>2.485402345657349</v>
+        <v>2.491870164871216</v>
       </c>
       <c r="G144">
         <v>0.03034269269324871</v>
@@ -4574,7 +4574,7 @@
         <v>-1.305201694265891</v>
       </c>
       <c r="I144">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4585,16 +4585,16 @@
         <v>59</v>
       </c>
       <c r="C145">
-        <v>199.4995197124495</v>
+        <v>200.858100719646</v>
       </c>
       <c r="D145">
-        <v>33.96247863769531</v>
+        <v>34.04834747314453</v>
       </c>
       <c r="E145">
         <v>34.456874764448</v>
       </c>
       <c r="F145">
-        <v>3.652405738830566</v>
+        <v>3.643194437026978</v>
       </c>
       <c r="G145">
         <v>-0.09062660158489143</v>
@@ -4603,7 +4603,7 @@
         <v>-1.639802592446514</v>
       </c>
       <c r="I145">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4632,7 +4632,7 @@
         <v>-1.095450470097568</v>
       </c>
       <c r="I146">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4643,16 +4643,16 @@
         <v>61</v>
       </c>
       <c r="C147">
-        <v>202.6424542018602</v>
+        <v>201.2796576256042</v>
       </c>
       <c r="D147">
-        <v>34.08169937133789</v>
+        <v>33.99556732177734</v>
       </c>
       <c r="E147">
         <v>21.47750869284573</v>
       </c>
       <c r="F147">
-        <v>2.268637657165527</v>
+        <v>2.274385690689087</v>
       </c>
       <c r="G147">
         <v>-0.06742437242755824</v>
@@ -4661,7 +4661,7 @@
         <v>-1.303367942610337</v>
       </c>
       <c r="I147">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4672,16 +4672,16 @@
         <v>62</v>
       </c>
       <c r="C148">
-        <v>210.3513674448669</v>
+        <v>216.1078572446636</v>
       </c>
       <c r="D148">
-        <v>32.22879028320312</v>
+        <v>32.59263229370117</v>
       </c>
       <c r="E148">
         <v>219.7798828132327</v>
       </c>
       <c r="F148">
-        <v>24.54971122741699</v>
+        <v>24.27565765380859</v>
       </c>
       <c r="G148">
         <v>0.3614021000029659</v>
@@ -4690,7 +4690,7 @@
         <v>-2.996890153055212</v>
       </c>
       <c r="I148">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4701,16 +4701,16 @@
         <v>63</v>
       </c>
       <c r="C149">
-        <v>150.1490235206237</v>
+        <v>158.5796199088042</v>
       </c>
       <c r="D149">
-        <v>42.64833068847656</v>
+        <v>43.02151107788086</v>
       </c>
       <c r="E149">
         <v>570.7407078778269</v>
       </c>
       <c r="F149">
-        <v>48.17695236206055</v>
+        <v>47.75904846191406</v>
       </c>
       <c r="G149">
         <v>-2.819358949109247</v>
@@ -4719,7 +4719,7 @@
         <v>-4.047118092241034</v>
       </c>
       <c r="I149">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4748,7 +4748,7 @@
         <v>1.224496329143648</v>
       </c>
       <c r="I150">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4759,16 +4759,16 @@
         <v>65</v>
       </c>
       <c r="C151">
-        <v>158.3388051963592</v>
+        <v>159.2816214104639</v>
       </c>
       <c r="D151">
-        <v>41.761474609375</v>
+        <v>41.8033561706543</v>
       </c>
       <c r="E151">
         <v>1238.094529523736</v>
       </c>
       <c r="F151">
-        <v>106.728515625</v>
+        <v>106.6215896606445</v>
       </c>
       <c r="G151">
         <v>-2.281667608214841</v>
@@ -4777,7 +4777,7 @@
         <v>0.5497540025124052</v>
       </c>
       <c r="I151">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4788,16 +4788,16 @@
         <v>66</v>
       </c>
       <c r="C152">
-        <v>252.1704872450465</v>
+        <v>248.4270775001456</v>
       </c>
       <c r="D152">
-        <v>20.06499862670898</v>
+        <v>19.86155891418457</v>
       </c>
       <c r="E152">
         <v>1478.37646889903</v>
       </c>
       <c r="F152">
-        <v>265.2457275390625</v>
+        <v>267.9626159667969</v>
       </c>
       <c r="G152">
         <v>3.513903955135374</v>
@@ -4806,7 +4806,7 @@
         <v>1.309943888990366</v>
       </c>
       <c r="I152">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4817,16 +4817,16 @@
         <v>67</v>
       </c>
       <c r="C153">
-        <v>193.4704226927835</v>
+        <v>197.0723971608055</v>
       </c>
       <c r="D153">
-        <v>37.15493774414062</v>
+        <v>37.35625839233398</v>
       </c>
       <c r="E153">
         <v>292.6010743627921</v>
       </c>
       <c r="F153">
-        <v>28.35057640075684</v>
+        <v>28.19778823852539</v>
       </c>
       <c r="G153">
         <v>-0.9351353751330883</v>
@@ -4835,7 +4835,7 @@
         <v>-4.295350749098601</v>
       </c>
       <c r="I153">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -4864,7 +4864,7 @@
         <v>-0.4008727633516296</v>
       </c>
       <c r="I154">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4875,16 +4875,16 @@
         <v>69</v>
       </c>
       <c r="C155">
-        <v>200.469050500965</v>
+        <v>192.6535283566785</v>
       </c>
       <c r="D155">
-        <v>35.50751113891602</v>
+        <v>35.01353073120117</v>
       </c>
       <c r="E155">
         <v>18.65366707263456</v>
       </c>
       <c r="F155">
-        <v>1.891239404678345</v>
+        <v>1.917921543121338</v>
       </c>
       <c r="G155">
         <v>-0.3949548349024165</v>
@@ -4893,7 +4893,7 @@
         <v>-2.043470506630904</v>
       </c>
       <c r="I155">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4904,16 +4904,16 @@
         <v>70</v>
       </c>
       <c r="C156">
-        <v>251.2271546506359</v>
+        <v>249.4013982324924</v>
       </c>
       <c r="D156">
-        <v>21.86346626281738</v>
+        <v>21.76424407958984</v>
       </c>
       <c r="E156">
         <v>1192.852900399776</v>
       </c>
       <c r="F156">
-        <v>196.4130554199219</v>
+        <v>197.3085021972656</v>
       </c>
       <c r="G156">
         <v>3.068620452199015</v>
@@ -4922,7 +4922,7 @@
         <v>-1.802040962007777</v>
       </c>
       <c r="I156">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4951,7 +4951,7 @@
         <v>-1.742113006776057</v>
       </c>
       <c r="I157">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4980,7 +4980,7 @@
         <v>-1.56225071611269</v>
       </c>
       <c r="I158">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -4991,16 +4991,16 @@
         <v>73</v>
       </c>
       <c r="C159">
-        <v>194.2306278472139</v>
+        <v>199.3998529611025</v>
       </c>
       <c r="D159">
-        <v>35.24475479125977</v>
+        <v>35.55624771118164</v>
       </c>
       <c r="E159">
         <v>113.1510649064658</v>
       </c>
       <c r="F159">
-        <v>11.55757236480713</v>
+        <v>11.45632171630859</v>
       </c>
       <c r="G159">
         <v>-0.4501397728075357</v>
@@ -5009,7 +5009,7 @@
         <v>-3.364038488402069</v>
       </c>
       <c r="I159">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5020,16 +5020,16 @@
         <v>74</v>
       </c>
       <c r="C160">
-        <v>205.6967130382379</v>
+        <v>201.5585744194662</v>
       </c>
       <c r="D160">
-        <v>33.64362335205078</v>
+        <v>33.38207244873047</v>
       </c>
       <c r="E160">
         <v>35.79399999910675</v>
       </c>
       <c r="F160">
-        <v>3.830098390579224</v>
+        <v>3.860107421875</v>
       </c>
       <c r="G160">
         <v>0.02429351747549238</v>
@@ -5038,7 +5038,7 @@
         <v>-2.850329613276325</v>
       </c>
       <c r="I160">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5049,16 +5049,16 @@
         <v>75</v>
       </c>
       <c r="C161">
-        <v>203.6259581097222</v>
+        <v>188.6393680438063</v>
       </c>
       <c r="D161">
-        <v>36.55760955810547</v>
+        <v>35.71997451782227</v>
       </c>
       <c r="E161">
         <v>122.4589308720097</v>
       </c>
       <c r="F161">
-        <v>12.05910682678223</v>
+        <v>12.34189414978027</v>
       </c>
       <c r="G161">
         <v>-0.6813108349116376</v>
@@ -5067,7 +5067,7 @@
         <v>-4.546921201111702</v>
       </c>
       <c r="I161">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5096,7 +5096,7 @@
         <v>-0.7150572444261751</v>
       </c>
       <c r="I162">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5107,16 +5107,16 @@
         <v>77</v>
       </c>
       <c r="C163">
-        <v>197.6720053187694</v>
+        <v>199.0121265846156</v>
       </c>
       <c r="D163">
-        <v>34.59592819213867</v>
+        <v>34.68062973022461</v>
       </c>
       <c r="E163">
         <v>74.4020240477912</v>
       </c>
       <c r="F163">
-        <v>7.742161750793457</v>
+        <v>7.723252773284912</v>
       </c>
       <c r="G163">
         <v>-0.191718887208056</v>
@@ -5125,7 +5125,7 @@
         <v>0.5490306867231698</v>
       </c>
       <c r="I163">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5154,7 +5154,7 @@
         <v>0.02587660591580461</v>
       </c>
       <c r="I164">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5165,16 +5165,16 @@
         <v>79</v>
       </c>
       <c r="C165">
-        <v>206.3669064248229</v>
+        <v>209.0596094043434</v>
       </c>
       <c r="D165">
-        <v>34.44419097900391</v>
+        <v>34.61347579956055</v>
       </c>
       <c r="E165">
         <v>75.08637616922351</v>
       </c>
       <c r="F165">
-        <v>7.847794532775879</v>
+        <v>7.809412956237793</v>
       </c>
       <c r="G165">
         <v>-0.1576901133683288</v>
@@ -5183,7 +5183,7 @@
         <v>-4.258154043925821</v>
       </c>
       <c r="I165">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5212,7 +5212,7 @@
         <v>0.7481270099782461</v>
       </c>
       <c r="I166">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5223,16 +5223,16 @@
         <v>81</v>
       </c>
       <c r="C167">
-        <v>145.9237324031079</v>
+        <v>150.4194953143916</v>
       </c>
       <c r="D167">
-        <v>42.58656311035156</v>
+        <v>42.78627777099609</v>
       </c>
       <c r="E167">
         <v>3454.663685947395</v>
       </c>
       <c r="F167">
-        <v>292.0354919433594</v>
+        <v>290.67236328125</v>
       </c>
       <c r="G167">
         <v>-2.514697343303455</v>
@@ -5241,7 +5241,7 @@
         <v>3.065985608365474</v>
       </c>
       <c r="I167">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5252,16 +5252,16 @@
         <v>82</v>
       </c>
       <c r="C168">
-        <v>230.3599036529592</v>
+        <v>235.4219415198865</v>
       </c>
       <c r="D168">
-        <v>25.66887855529785</v>
+        <v>25.98773765563965</v>
       </c>
       <c r="E168">
         <v>490.2055269807897</v>
       </c>
       <c r="F168">
-        <v>68.75017547607422</v>
+        <v>67.90663909912109</v>
       </c>
       <c r="G168">
         <v>1.944243625895261</v>
@@ -5270,7 +5270,7 @@
         <v>-2.419328873481414</v>
       </c>
       <c r="I168">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5281,16 +5281,16 @@
         <v>83</v>
       </c>
       <c r="C169">
-        <v>177.2981362136854</v>
+        <v>186.2819871107802</v>
       </c>
       <c r="D169">
-        <v>37.62138366699219</v>
+        <v>38.12351226806641</v>
       </c>
       <c r="E169">
         <v>527.239657418635</v>
       </c>
       <c r="F169">
-        <v>50.45169830322266</v>
+        <v>49.78719711303711</v>
       </c>
       <c r="G169">
         <v>-1.340100708621075</v>
@@ -5299,7 +5299,7 @@
         <v>-5.772312393461049</v>
       </c>
       <c r="I169">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Simulador/res_sim_ori.xlsx
+++ b/Simulador/res_sim_ori.xlsx
@@ -2874,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>212.4100882852489</v>
+        <v>214.047978155085</v>
       </c>
       <c r="D86">
-        <v>26.8738899230957</v>
+        <v>26.97741508483887</v>
       </c>
       <c r="E86">
         <v>344.0415503671599</v>
       </c>
       <c r="F86">
-        <v>46.08747100830078</v>
+        <v>45.91061019897461</v>
       </c>
       <c r="G86">
         <v>1.596116034322399</v>
@@ -2892,7 +2892,7 @@
         <v>3.492272793926644</v>
       </c>
       <c r="I86">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2903,16 +2903,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>195.8442626255413</v>
+        <v>198.5145536995319</v>
       </c>
       <c r="D87">
-        <v>34.72961807250977</v>
+        <v>34.89839172363281</v>
       </c>
       <c r="E87">
         <v>13.56729663011254</v>
       </c>
       <c r="F87">
-        <v>1.406357765197754</v>
+        <v>1.399556398391724</v>
       </c>
       <c r="G87">
         <v>-0.2188322408916709</v>
@@ -2921,7 +2921,7 @@
         <v>1.57454844203958</v>
       </c>
       <c r="I87">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2932,16 +2932,16 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>207.6413092108305</v>
+        <v>204.7596666005107</v>
       </c>
       <c r="D88">
-        <v>32.52976226806641</v>
+        <v>32.34762954711914</v>
       </c>
       <c r="E88">
         <v>168.9935131340457</v>
       </c>
       <c r="F88">
-        <v>18.7021541595459</v>
+        <v>18.80745697021484</v>
       </c>
       <c r="G88">
         <v>0.3711593507547151</v>
@@ -2950,7 +2950,7 @@
         <v>1.731397461341183</v>
       </c>
       <c r="I88">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2961,16 +2961,16 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>199.9137848257901</v>
+        <v>198.5510193224993</v>
       </c>
       <c r="D89">
-        <v>34.22743606567383</v>
+        <v>34.14130401611328</v>
       </c>
       <c r="E89">
         <v>17.33180625774378</v>
       </c>
       <c r="F89">
-        <v>1.822938084602356</v>
+        <v>1.827537059783936</v>
       </c>
       <c r="G89">
         <v>-0.0675955599860016</v>
@@ -2979,7 +2979,7 @@
         <v>1.57520843538257</v>
       </c>
       <c r="I89">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2990,16 +2990,16 @@
         <v>4</v>
       </c>
       <c r="C90">
-        <v>195.5036422877196</v>
+        <v>196.8919789078017</v>
       </c>
       <c r="D90">
-        <v>33.43892669677734</v>
+        <v>33.52667999267578</v>
       </c>
       <c r="E90">
         <v>48.49833201473393</v>
       </c>
       <c r="F90">
-        <v>5.221279621124268</v>
+        <v>5.207613468170166</v>
       </c>
       <c r="G90">
         <v>0.07414374889212304</v>
@@ -3008,7 +3008,7 @@
         <v>3.40763809526817</v>
       </c>
       <c r="I90">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3019,16 +3019,16 @@
         <v>5</v>
       </c>
       <c r="C91">
-        <v>199.4536733531874</v>
+        <v>189.8498395422455</v>
       </c>
       <c r="D91">
-        <v>34.08193588256836</v>
+        <v>33.47492218017578</v>
       </c>
       <c r="E91">
         <v>15.03489657772798</v>
       </c>
       <c r="F91">
-        <v>1.588103055953979</v>
+        <v>1.61690080165863</v>
       </c>
       <c r="G91">
         <v>-0.01674270518462065</v>
@@ -3037,7 +3037,7 @@
         <v>2.835582102804634</v>
       </c>
       <c r="I91">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3048,16 +3048,16 @@
         <v>6</v>
       </c>
       <c r="C92">
-        <v>196.985950004047</v>
+        <v>189.8899311866251</v>
       </c>
       <c r="D92">
-        <v>32.80995559692383</v>
+        <v>32.3614501953125</v>
       </c>
       <c r="E92">
         <v>55.21180257348544</v>
       </c>
       <c r="F92">
-        <v>6.057993412017822</v>
+        <v>6.141952514648438</v>
       </c>
       <c r="G92">
         <v>0.2477469273428186</v>
@@ -3066,7 +3066,7 @@
         <v>4.760357197651417</v>
       </c>
       <c r="I92">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3077,16 +3077,16 @@
         <v>7</v>
       </c>
       <c r="C93">
-        <v>149.9973501570169</v>
+        <v>153.6531501637703</v>
       </c>
       <c r="D93">
-        <v>42.5806770324707</v>
+        <v>42.74308013916016</v>
       </c>
       <c r="E93">
         <v>560.0692098765884</v>
       </c>
       <c r="F93">
-        <v>47.35127258300781</v>
+        <v>47.17135620117188</v>
       </c>
       <c r="G93">
         <v>-2.435372970096637</v>
@@ -3095,7 +3095,7 @@
         <v>3.98256430003651</v>
       </c>
       <c r="I93">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3106,16 +3106,16 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <v>249.5719941049813</v>
+        <v>244.3765521422868</v>
       </c>
       <c r="D94">
-        <v>24.86376190185547</v>
+        <v>24.53827667236328</v>
       </c>
       <c r="E94">
         <v>1382.447533600548</v>
       </c>
       <c r="F94">
-        <v>200.1632385253906</v>
+        <v>202.8182678222656</v>
       </c>
       <c r="G94">
         <v>2.353631628237696</v>
@@ -3124,7 +3124,7 @@
         <v>-3.902847856084686</v>
       </c>
       <c r="I94">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3135,16 +3135,16 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>214.2764706860224</v>
+        <v>211.5868045475355</v>
       </c>
       <c r="D95">
-        <v>35.08147430419922</v>
+        <v>34.91147232055664</v>
       </c>
       <c r="E95">
         <v>199.1265320145867</v>
       </c>
       <c r="F95">
-        <v>20.43401908874512</v>
+        <v>20.53352165222168</v>
       </c>
       <c r="G95">
         <v>-0.1659918344285073</v>
@@ -3153,7 +3153,7 @@
         <v>-3.39453113286161</v>
       </c>
       <c r="I95">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3164,16 +3164,16 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>208.3492898518012</v>
+        <v>205.5106900527556</v>
       </c>
       <c r="D96">
-        <v>32.69679260253906</v>
+        <v>32.51737976074219</v>
       </c>
       <c r="E96">
         <v>91.86067101041317</v>
       </c>
       <c r="F96">
-        <v>10.11409378051758</v>
+        <v>10.16989707946777</v>
       </c>
       <c r="G96">
         <v>0.2482922711943954</v>
@@ -3182,7 +3182,7 @@
         <v>-2.756201684925812</v>
       </c>
       <c r="I96">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3193,16 +3193,16 @@
         <v>11</v>
       </c>
       <c r="C97">
-        <v>198.0122294824504</v>
+        <v>196.6821071876259</v>
       </c>
       <c r="D97">
-        <v>34.76255798339844</v>
+        <v>34.67848587036133</v>
       </c>
       <c r="E97">
         <v>13.58046852523921</v>
       </c>
       <c r="F97">
-        <v>1.406389117240906</v>
+        <v>1.409798741340637</v>
       </c>
       <c r="G97">
         <v>-0.2461488251019247</v>
@@ -3211,7 +3211,7 @@
         <v>-0.6139341684454964</v>
       </c>
       <c r="I97">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3222,16 +3222,16 @@
         <v>12</v>
       </c>
       <c r="C98">
-        <v>248.3795926524217</v>
+        <v>250.2319117701229</v>
       </c>
       <c r="D98">
-        <v>20.65255737304688</v>
+        <v>20.75322341918945</v>
       </c>
       <c r="E98">
         <v>1755.103346009126</v>
       </c>
       <c r="F98">
-        <v>305.9365539550781</v>
+        <v>304.4525756835938</v>
       </c>
       <c r="G98">
         <v>3.32023723483058</v>
@@ -3240,7 +3240,7 @@
         <v>-2.486692203613646</v>
       </c>
       <c r="I98">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3251,16 +3251,16 @@
         <v>13</v>
       </c>
       <c r="C99">
-        <v>220.4471407469995</v>
+        <v>213.7424961831204</v>
       </c>
       <c r="D99">
-        <v>34.64437484741211</v>
+        <v>34.22924423217773</v>
       </c>
       <c r="E99">
         <v>26.87268222576495</v>
       </c>
       <c r="F99">
-        <v>2.792420148849487</v>
+        <v>2.826286792755127</v>
       </c>
       <c r="G99">
         <v>-0.05742926703369799</v>
@@ -3269,7 +3269,7 @@
         <v>-4.904003908876237</v>
       </c>
       <c r="I99">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3280,16 +3280,16 @@
         <v>14</v>
       </c>
       <c r="C100">
-        <v>222.7108238046733</v>
+        <v>221.1173352086559</v>
       </c>
       <c r="D100">
-        <v>33.77034759521484</v>
+        <v>33.673828125</v>
       </c>
       <c r="E100">
         <v>18.32142955760628</v>
       </c>
       <c r="F100">
-        <v>1.953108310699463</v>
+        <v>1.958706498146057</v>
       </c>
       <c r="G100">
         <v>0.1052479458827658</v>
@@ -3298,7 +3298,7 @@
         <v>-5.685938728369462</v>
       </c>
       <c r="I100">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3309,16 +3309,16 @@
         <v>15</v>
       </c>
       <c r="C101">
-        <v>160.8404833792993</v>
+        <v>177.5893057174293</v>
       </c>
       <c r="D101">
-        <v>40.97915649414062</v>
+        <v>41.86480331420898</v>
       </c>
       <c r="E101">
         <v>778.6626264767738</v>
       </c>
       <c r="F101">
-        <v>68.40514373779297</v>
+        <v>66.95804595947266</v>
       </c>
       <c r="G101">
         <v>-2.347143802750921</v>
@@ -3327,7 +3327,7 @@
         <v>-5.184267536920604</v>
       </c>
       <c r="I101">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3338,16 +3338,16 @@
         <v>16</v>
       </c>
       <c r="C102">
-        <v>209.414647058288</v>
+        <v>210.8733808669576</v>
       </c>
       <c r="D102">
-        <v>31.7907772064209</v>
+        <v>31.88297653198242</v>
       </c>
       <c r="E102">
         <v>118.2246671331604</v>
       </c>
       <c r="F102">
-        <v>13.38780784606934</v>
+        <v>13.34909248352051</v>
       </c>
       <c r="G102">
         <v>0.4746819056162278</v>
@@ -3356,7 +3356,7 @@
         <v>-1.272944327177375</v>
       </c>
       <c r="I102">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3367,16 +3367,16 @@
         <v>17</v>
       </c>
       <c r="C103">
-        <v>173.2397206866067</v>
+        <v>159.1214962492232</v>
       </c>
       <c r="D103">
-        <v>41.46060562133789</v>
+        <v>40.7130012512207</v>
       </c>
       <c r="E103">
         <v>2858.371279980439</v>
       </c>
       <c r="F103">
-        <v>248.1906890869141</v>
+        <v>252.7481842041016</v>
       </c>
       <c r="G103">
         <v>-2.290160995983005</v>
@@ -3385,7 +3385,7 @@
         <v>-4.949172023586057</v>
       </c>
       <c r="I103">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3396,16 +3396,16 @@
         <v>18</v>
       </c>
       <c r="C104">
-        <v>225.6592358795646</v>
+        <v>202.4778271633178</v>
       </c>
       <c r="D104">
-        <v>31.68818473815918</v>
+        <v>30.23079490661621</v>
       </c>
       <c r="E104">
         <v>102.3123986075007</v>
       </c>
       <c r="F104">
-        <v>11.62340545654297</v>
+        <v>12.18375682830811</v>
       </c>
       <c r="G104">
         <v>0.3209526194120306</v>
@@ -3414,7 +3414,7 @@
         <v>-9.70486363213517</v>
       </c>
       <c r="I104">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3425,16 +3425,16 @@
         <v>19</v>
       </c>
       <c r="C105">
-        <v>194.1141376542186</v>
+        <v>218.9270994375812</v>
       </c>
       <c r="D105">
-        <v>31.98231506347656</v>
+        <v>33.54227447509766</v>
       </c>
       <c r="E105">
         <v>30.59651750363264</v>
       </c>
       <c r="F105">
-        <v>3.444011449813843</v>
+        <v>3.28383994102478</v>
       </c>
       <c r="G105">
         <v>-0.1654132108420091</v>
@@ -3443,7 +3443,7 @@
         <v>-9.861219867994032</v>
       </c>
       <c r="I105">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3454,16 +3454,16 @@
         <v>20</v>
       </c>
       <c r="C106">
-        <v>204.2063978483665</v>
+        <v>221.5035447084712</v>
       </c>
       <c r="D106">
-        <v>31.91837120056152</v>
+        <v>33.00582122802734</v>
       </c>
       <c r="E106">
         <v>24.03705720769904</v>
       </c>
       <c r="F106">
-        <v>2.711084604263306</v>
+        <v>2.621762037277222</v>
       </c>
       <c r="G106">
         <v>0.01819589233524954</v>
@@ -3472,7 +3472,7 @@
         <v>-9.279345091961993</v>
       </c>
       <c r="I106">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3501,7 +3501,7 @@
         <v>-9.238281327998019</v>
       </c>
       <c r="I107">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3530,7 +3530,7 @@
         <v>-9.954147471937697</v>
       </c>
       <c r="I108">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3559,7 +3559,7 @@
         <v>-9.022411740833657</v>
       </c>
       <c r="I109">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3588,7 +3588,7 @@
         <v>-8.465904839481219</v>
       </c>
       <c r="I110">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3617,7 +3617,7 @@
         <v>-9.450384387180872</v>
       </c>
       <c r="I111">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3646,7 +3646,7 @@
         <v>-9.945059851748946</v>
       </c>
       <c r="I112">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3657,16 +3657,16 @@
         <v>27</v>
       </c>
       <c r="C113">
-        <v>219.8015722052845</v>
+        <v>195.2005414691534</v>
       </c>
       <c r="D113">
-        <v>33.44755554199219</v>
+        <v>31.90091896057129</v>
       </c>
       <c r="E113">
         <v>12.15827774819991</v>
       </c>
       <c r="F113">
-        <v>1.3086097240448</v>
+        <v>1.37205445766449</v>
       </c>
       <c r="G113">
         <v>-0.1034063002761221</v>
@@ -3675,7 +3675,7 @@
         <v>-9.385389381431935</v>
       </c>
       <c r="I113">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3704,7 +3704,7 @@
         <v>-6.42479720367449</v>
       </c>
       <c r="I114">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3715,16 +3715,16 @@
         <v>29</v>
       </c>
       <c r="C115">
-        <v>135.0613780158662</v>
+        <v>129.6720412454149</v>
       </c>
       <c r="D115">
-        <v>45.25009918212891</v>
+        <v>45.01069259643555</v>
       </c>
       <c r="E115">
         <v>561.0455563968753</v>
       </c>
       <c r="F115">
-        <v>44.63556671142578</v>
+        <v>44.87297821044922</v>
       </c>
       <c r="G115">
         <v>-3.228726121143762</v>
@@ -3733,7 +3733,7 @@
         <v>4.029840037148754</v>
       </c>
       <c r="I115">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3744,16 +3744,16 @@
         <v>30</v>
       </c>
       <c r="C116">
-        <v>178.8324503300365</v>
+        <v>210.8394569522468</v>
       </c>
       <c r="D116">
-        <v>30.38631439208984</v>
+        <v>32.40931701660156</v>
       </c>
       <c r="E116">
         <v>104.9411033259221</v>
       </c>
       <c r="F116">
-        <v>12.43283176422119</v>
+        <v>11.65676975250244</v>
       </c>
       <c r="G116">
         <v>0.5587509355297379</v>
@@ -3762,7 +3762,7 @@
         <v>7.35038777279619</v>
       </c>
       <c r="I116">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3773,16 +3773,16 @@
         <v>31</v>
       </c>
       <c r="C117">
-        <v>156.7458517647452</v>
+        <v>165.171491212528</v>
       </c>
       <c r="D117">
-        <v>41.15621948242188</v>
+        <v>41.56807327270508</v>
       </c>
       <c r="E117">
         <v>442.239946164329</v>
       </c>
       <c r="F117">
-        <v>38.68343353271484</v>
+        <v>38.3001594543457</v>
       </c>
       <c r="G117">
         <v>-2.31687999893804</v>
@@ -3791,7 +3791,7 @@
         <v>-2.995590014584259</v>
       </c>
       <c r="I117">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3802,16 +3802,16 @@
         <v>32</v>
       </c>
       <c r="C118">
-        <v>251.816684398179</v>
+        <v>249.9296471820358</v>
       </c>
       <c r="D118">
-        <v>19.37777900695801</v>
+        <v>19.27522468566895</v>
       </c>
       <c r="E118">
         <v>803.8684356637259</v>
       </c>
       <c r="F118">
-        <v>149.3425140380859</v>
+        <v>150.1370849609375</v>
       </c>
       <c r="G118">
         <v>3.67386674782785</v>
@@ -3820,7 +3820,7 @@
         <v>1.64528195886503</v>
       </c>
       <c r="I118">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3831,16 +3831,16 @@
         <v>33</v>
       </c>
       <c r="C119">
-        <v>179.7118444259558</v>
+        <v>178.5647259816962</v>
       </c>
       <c r="D119">
-        <v>38.32610702514648</v>
+        <v>38.26173782348633</v>
       </c>
       <c r="E119">
         <v>225.0946341554045</v>
       </c>
       <c r="F119">
-        <v>21.14330673217773</v>
+        <v>21.17887878417969</v>
       </c>
       <c r="G119">
         <v>-1.214580773440048</v>
@@ -3849,7 +3849,7 @@
         <v>0.03624061437360713</v>
       </c>
       <c r="I119">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3860,16 +3860,16 @@
         <v>34</v>
       </c>
       <c r="C120">
-        <v>253.2272975717206</v>
+        <v>255.1095705474378</v>
       </c>
       <c r="D120">
-        <v>19.65225410461426</v>
+        <v>19.75454711914062</v>
       </c>
       <c r="E120">
         <v>1544.238605138566</v>
       </c>
       <c r="F120">
-        <v>282.8815002441406</v>
+        <v>281.4166870117188</v>
       </c>
       <c r="G120">
         <v>3.623477518515383</v>
@@ -3878,7 +3878,7 @@
         <v>-1.280216372607037</v>
       </c>
       <c r="I120">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3889,16 +3889,16 @@
         <v>35</v>
       </c>
       <c r="C121">
-        <v>158.2100472575905</v>
+        <v>155.4137458398628</v>
       </c>
       <c r="D121">
-        <v>42.13228607177734</v>
+        <v>42.00806427001953</v>
       </c>
       <c r="E121">
         <v>916.9238501302698</v>
       </c>
       <c r="F121">
-        <v>78.34670257568359</v>
+        <v>78.57837677001953</v>
       </c>
       <c r="G121">
         <v>-2.338576875737777</v>
@@ -3907,7 +3907,7 @@
         <v>1.418178375911533</v>
       </c>
       <c r="I121">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3918,16 +3918,16 @@
         <v>36</v>
       </c>
       <c r="C122">
-        <v>221.9048797289773</v>
+        <v>197.8135917574117</v>
       </c>
       <c r="D122">
-        <v>33.74606323242188</v>
+        <v>32.23442077636719</v>
       </c>
       <c r="E122">
         <v>30.13365751333913</v>
       </c>
       <c r="F122">
-        <v>3.2146315574646</v>
+        <v>3.365382671356201</v>
       </c>
       <c r="G122">
         <v>0.04705830724490476</v>
@@ -3936,7 +3936,7 @@
         <v>-6.504653418974739</v>
       </c>
       <c r="I122">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3947,16 +3947,16 @@
         <v>37</v>
       </c>
       <c r="C123">
-        <v>192.7980056386309</v>
+        <v>194.0759856950172</v>
       </c>
       <c r="D123">
-        <v>35.30751037597656</v>
+        <v>35.38785552978516</v>
       </c>
       <c r="E123">
         <v>46.67657954138122</v>
       </c>
       <c r="F123">
-        <v>4.759204864501953</v>
+        <v>4.74839973449707</v>
       </c>
       <c r="G123">
         <v>-0.5267327097768739</v>
@@ -3965,7 +3965,7 @@
         <v>-4.414407877173214</v>
       </c>
       <c r="I123">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3976,16 +3976,16 @@
         <v>38</v>
       </c>
       <c r="C124">
-        <v>221.3879857072862</v>
+        <v>226.5436335877462</v>
       </c>
       <c r="D124">
-        <v>24.53653144836426</v>
+        <v>24.86239433288574</v>
       </c>
       <c r="E124">
         <v>1452.278941769579</v>
       </c>
       <c r="F124">
-        <v>213.078369140625</v>
+        <v>210.2856140136719</v>
       </c>
       <c r="G124">
         <v>2.176018014218581</v>
@@ -3994,7 +3994,7 @@
         <v>3.558546856154219</v>
       </c>
       <c r="I124">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4005,16 +4005,16 @@
         <v>39</v>
       </c>
       <c r="C125">
-        <v>194.073620314031</v>
+        <v>196.7077758306439</v>
       </c>
       <c r="D125">
-        <v>35.06266403198242</v>
+        <v>35.22916030883789</v>
       </c>
       <c r="E125">
         <v>340.4292798588431</v>
       </c>
       <c r="F125">
-        <v>34.9530029296875</v>
+        <v>34.78781127929688</v>
       </c>
       <c r="G125">
         <v>-0.3168343342728075</v>
@@ -4023,7 +4023,7 @@
         <v>1.146574443400988</v>
       </c>
       <c r="I125">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4052,7 +4052,7 @@
         <v>9.997376345115907</v>
       </c>
       <c r="I126">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4063,16 +4063,16 @@
         <v>41</v>
       </c>
       <c r="C127">
-        <v>170.1119185630267</v>
+        <v>171.1012072083258</v>
       </c>
       <c r="D127">
-        <v>33.19799423217773</v>
+        <v>33.26494598388672</v>
       </c>
       <c r="E127">
         <v>17.19116230919826</v>
       </c>
       <c r="F127">
-        <v>1.864214420318604</v>
+        <v>1.860462427139282</v>
       </c>
       <c r="G127">
         <v>-0.08132546284821182</v>
@@ -4081,7 +4081,7 @@
         <v>9.135520449007458</v>
       </c>
       <c r="I127">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4092,16 +4092,16 @@
         <v>42</v>
       </c>
       <c r="C128">
-        <v>247.5055084025498</v>
+        <v>245.6620184186856</v>
       </c>
       <c r="D128">
-        <v>21.0499439239502</v>
+        <v>20.9559383392334</v>
       </c>
       <c r="E128">
         <v>919.7985693233386</v>
       </c>
       <c r="F128">
-        <v>157.3056488037109</v>
+        <v>158.0112915039062</v>
       </c>
       <c r="G128">
         <v>3.234936644182395</v>
@@ -4110,7 +4110,7 @@
         <v>3.212140446956366</v>
       </c>
       <c r="I128">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4121,16 +4121,16 @@
         <v>43</v>
       </c>
       <c r="C129">
-        <v>161.7155675839672</v>
+        <v>142.8487049681554</v>
       </c>
       <c r="D129">
-        <v>41.80600738525391</v>
+        <v>40.56056976318359</v>
       </c>
       <c r="E129">
         <v>551.9324064875545</v>
       </c>
       <c r="F129">
-        <v>47.52801895141602</v>
+        <v>48.98739624023438</v>
       </c>
       <c r="G129">
         <v>-1.941400280353867</v>
@@ -4139,7 +4139,7 @@
         <v>8.736348125741674</v>
       </c>
       <c r="I129">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4150,16 +4150,16 @@
         <v>44</v>
       </c>
       <c r="C130">
-        <v>176.7011273711588</v>
+        <v>193.65341611337</v>
       </c>
       <c r="D130">
-        <v>31.33520698547363</v>
+        <v>32.43943023681641</v>
       </c>
       <c r="E130">
         <v>207.6893822174316</v>
       </c>
       <c r="F130">
-        <v>23.86075592041016</v>
+        <v>23.04854774475098</v>
       </c>
       <c r="G130">
         <v>0.3983383409993186</v>
@@ -4168,7 +4168,7 @@
         <v>9.769148550392874</v>
       </c>
       <c r="I130">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4179,16 +4179,16 @@
         <v>45</v>
       </c>
       <c r="C131">
-        <v>157.2885389071149</v>
+        <v>154.5198827399014</v>
       </c>
       <c r="D131">
-        <v>42.55609512329102</v>
+        <v>42.4330940246582</v>
       </c>
       <c r="E131">
         <v>938.7045830726238</v>
       </c>
       <c r="F131">
-        <v>79.40898895263672</v>
+        <v>79.63916778564453</v>
       </c>
       <c r="G131">
         <v>-2.387654775159163</v>
@@ -4197,7 +4197,7 @@
         <v>3.048267834828779</v>
       </c>
       <c r="I131">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4208,16 +4208,16 @@
         <v>46</v>
       </c>
       <c r="C132">
-        <v>174.5347071149532</v>
+        <v>211.0033213661671</v>
       </c>
       <c r="D132">
-        <v>31.97195625305176</v>
+        <v>34.36090850830078</v>
       </c>
       <c r="E132">
         <v>25.27869677441049</v>
       </c>
       <c r="F132">
-        <v>2.846347808837891</v>
+        <v>2.648454666137695</v>
       </c>
       <c r="G132">
         <v>0.2381323032010778</v>
@@ -4226,7 +4226,7 @@
         <v>9.671196658366</v>
       </c>
       <c r="I132">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4237,16 +4237,16 @@
         <v>47</v>
       </c>
       <c r="C133">
-        <v>160.491964208273</v>
+        <v>158.6195727532088</v>
       </c>
       <c r="D133">
-        <v>42.92282867431641</v>
+        <v>42.83965682983398</v>
       </c>
       <c r="E133">
         <v>710.8830771958565</v>
       </c>
       <c r="F133">
-        <v>59.62279510498047</v>
+        <v>59.73854827880859</v>
       </c>
       <c r="G133">
         <v>-2.316807924352409</v>
@@ -4255,7 +4255,7 @@
         <v>6.329466394030306</v>
       </c>
       <c r="I133">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4284,7 +4284,7 @@
         <v>8.616249065587811</v>
       </c>
       <c r="I134">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4313,7 +4313,7 @@
         <v>9.478193265144439</v>
       </c>
       <c r="I135">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4324,16 +4324,16 @@
         <v>50</v>
       </c>
       <c r="C136">
-        <v>230.7670644194769</v>
+        <v>195.7068689763964</v>
       </c>
       <c r="D136">
-        <v>26.49566078186035</v>
+        <v>24.28691864013672</v>
       </c>
       <c r="E136">
         <v>435.5356769315731</v>
       </c>
       <c r="F136">
-        <v>59.17679595947266</v>
+        <v>64.55855560302734</v>
       </c>
       <c r="G136">
         <v>1.974519515110574</v>
@@ -4342,7 +4342,7 @@
         <v>6.773746381148227</v>
       </c>
       <c r="I136">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4353,16 +4353,16 @@
         <v>51</v>
       </c>
       <c r="C137">
-        <v>113.8851179867005</v>
+        <v>120.9463016958906</v>
       </c>
       <c r="D137">
-        <v>48.54358673095703</v>
+        <v>48.18379592895508</v>
       </c>
       <c r="E137">
         <v>1558.661065889315</v>
       </c>
       <c r="F137">
-        <v>115.5905380249023</v>
+        <v>116.4536666870117</v>
       </c>
       <c r="G137">
         <v>-4.645913252401428</v>
@@ -4371,7 +4371,7 @@
         <v>9.100209265993705</v>
       </c>
       <c r="I137">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4382,16 +4382,16 @@
         <v>52</v>
       </c>
       <c r="C138">
-        <v>241.7235016684445</v>
+        <v>196.3067975683373</v>
       </c>
       <c r="D138">
-        <v>27.13228797912598</v>
+        <v>24.25494575500488</v>
       </c>
       <c r="E138">
         <v>755.2700581801146</v>
       </c>
       <c r="F138">
-        <v>100.2116775512695</v>
+        <v>112.0997085571289</v>
       </c>
       <c r="G138">
         <v>2.031562830371228</v>
@@ -4400,7 +4400,7 @@
         <v>8.803832620215976</v>
       </c>
       <c r="I138">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4411,16 +4411,16 @@
         <v>53</v>
       </c>
       <c r="C139">
-        <v>151.3750809182409</v>
+        <v>148.7838284906937</v>
       </c>
       <c r="D139">
-        <v>43.57570266723633</v>
+        <v>43.4605827331543</v>
       </c>
       <c r="E139">
         <v>1264.899823143351</v>
       </c>
       <c r="F139">
-        <v>104.4994964599609</v>
+        <v>104.7762985229492</v>
       </c>
       <c r="G139">
         <v>-2.706180481819132</v>
@@ -4429,7 +4429,7 @@
         <v>2.715786035652243</v>
       </c>
       <c r="I139">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4458,7 +4458,7 @@
         <v>-0.9691183484051571</v>
       </c>
       <c r="I140">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4469,16 +4469,16 @@
         <v>55</v>
       </c>
       <c r="C141">
-        <v>199.4627026402702</v>
+        <v>198.1180756138675</v>
       </c>
       <c r="D141">
-        <v>34.32258605957031</v>
+        <v>34.23759460449219</v>
       </c>
       <c r="E141">
         <v>25.59575949009377</v>
       </c>
       <c r="F141">
-        <v>2.684667587280273</v>
+        <v>2.691332101821899</v>
       </c>
       <c r="G141">
         <v>-0.1671179263512283</v>
@@ -4487,7 +4487,7 @@
         <v>-1.836499198479489</v>
       </c>
       <c r="I141">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4498,16 +4498,16 @@
         <v>56</v>
       </c>
       <c r="C142">
-        <v>205.6830919257723</v>
+        <v>207.0759938260275</v>
       </c>
       <c r="D142">
-        <v>33.40991973876953</v>
+        <v>33.49795532226562</v>
       </c>
       <c r="E142">
         <v>12.64423606528362</v>
       </c>
       <c r="F142">
-        <v>1.362447023391724</v>
+        <v>1.358866453170776</v>
       </c>
       <c r="G142">
         <v>0.0996391493335807</v>
@@ -4516,7 +4516,7 @@
         <v>-1.530310538753543</v>
       </c>
       <c r="I142">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4527,16 +4527,16 @@
         <v>57</v>
       </c>
       <c r="C143">
-        <v>202.2231268443722</v>
+        <v>203.5953581128159</v>
       </c>
       <c r="D143">
-        <v>33.80237197875977</v>
+        <v>33.88910675048828</v>
       </c>
       <c r="E143">
         <v>12.5971306548563</v>
       </c>
       <c r="F143">
-        <v>1.341611981391907</v>
+        <v>1.338178396224976</v>
       </c>
       <c r="G143">
         <v>-0.01533163524593177</v>
@@ -4545,7 +4545,7 @@
         <v>-1.223801256598705</v>
       </c>
       <c r="I143">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4556,16 +4556,16 @@
         <v>58</v>
       </c>
       <c r="C144">
-        <v>201.6663910932875</v>
+        <v>204.4273282870913</v>
       </c>
       <c r="D144">
-        <v>33.52884674072266</v>
+        <v>33.70335388183594</v>
       </c>
       <c r="E144">
         <v>23.20820445037316</v>
       </c>
       <c r="F144">
-        <v>2.491870164871216</v>
+        <v>2.478967905044556</v>
       </c>
       <c r="G144">
         <v>0.03034269269324871</v>
@@ -4574,7 +4574,7 @@
         <v>-1.305201694265891</v>
       </c>
       <c r="I144">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4585,16 +4585,16 @@
         <v>59</v>
       </c>
       <c r="C145">
-        <v>200.858100719646</v>
+        <v>202.2166817268425</v>
       </c>
       <c r="D145">
-        <v>34.04834747314453</v>
+        <v>34.13421630859375</v>
       </c>
       <c r="E145">
         <v>34.456874764448</v>
       </c>
       <c r="F145">
-        <v>3.643194437026978</v>
+        <v>3.634029626846313</v>
       </c>
       <c r="G145">
         <v>-0.09062660158489143</v>
@@ -4603,7 +4603,7 @@
         <v>-1.639802592446514</v>
       </c>
       <c r="I145">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4614,16 +4614,16 @@
         <v>60</v>
       </c>
       <c r="C146">
-        <v>203.6023330876295</v>
+        <v>202.2163097567532</v>
       </c>
       <c r="D146">
-        <v>33.51913452148438</v>
+        <v>33.4315299987793</v>
       </c>
       <c r="E146">
         <v>41.78436304307252</v>
       </c>
       <c r="F146">
-        <v>4.487696170806885</v>
+        <v>4.499456405639648</v>
       </c>
       <c r="G146">
         <v>0.0612476728704989</v>
@@ -4632,7 +4632,7 @@
         <v>-1.095450470097568</v>
       </c>
       <c r="I146">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4661,7 +4661,7 @@
         <v>-1.303367942610337</v>
       </c>
       <c r="I147">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4672,16 +4672,16 @@
         <v>62</v>
       </c>
       <c r="C148">
-        <v>216.1078572446636</v>
+        <v>211.7904898948161</v>
       </c>
       <c r="D148">
-        <v>32.59263229370117</v>
+        <v>32.31975555419922</v>
       </c>
       <c r="E148">
         <v>219.7798828132327</v>
       </c>
       <c r="F148">
-        <v>24.27565765380859</v>
+        <v>24.48061752319336</v>
       </c>
       <c r="G148">
         <v>0.3614021000029659</v>
@@ -4690,7 +4690,7 @@
         <v>-2.996890153055212</v>
       </c>
       <c r="I148">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4701,16 +4701,16 @@
         <v>63</v>
       </c>
       <c r="C149">
-        <v>158.5796199088042</v>
+        <v>154.364321714714</v>
       </c>
       <c r="D149">
-        <v>43.02151107788086</v>
+        <v>42.83491897583008</v>
       </c>
       <c r="E149">
         <v>570.7407078778269</v>
       </c>
       <c r="F149">
-        <v>47.75904846191406</v>
+        <v>47.96709060668945</v>
       </c>
       <c r="G149">
         <v>-2.819358949109247</v>
@@ -4719,7 +4719,7 @@
         <v>-4.047118092241034</v>
       </c>
       <c r="I149">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4730,16 +4730,16 @@
         <v>64</v>
       </c>
       <c r="C150">
-        <v>221.1021279480878</v>
+        <v>219.525338776895</v>
       </c>
       <c r="D150">
-        <v>29.19924736022949</v>
+        <v>29.0995922088623</v>
       </c>
       <c r="E150">
         <v>1701.564347687097</v>
       </c>
       <c r="F150">
-        <v>209.7873229980469</v>
+        <v>210.5057373046875</v>
       </c>
       <c r="G150">
         <v>1.192672554068895</v>
@@ -4748,7 +4748,7 @@
         <v>1.224496329143648</v>
       </c>
       <c r="I150">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4759,16 +4759,16 @@
         <v>65</v>
       </c>
       <c r="C151">
-        <v>159.2816214104639</v>
+        <v>158.3388051963592</v>
       </c>
       <c r="D151">
-        <v>41.8033561706543</v>
+        <v>41.761474609375</v>
       </c>
       <c r="E151">
         <v>1238.094529523736</v>
       </c>
       <c r="F151">
-        <v>106.6215896606445</v>
+        <v>106.728515625</v>
       </c>
       <c r="G151">
         <v>-2.281667608214841</v>
@@ -4777,7 +4777,7 @@
         <v>0.5497540025124052</v>
       </c>
       <c r="I151">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4788,16 +4788,16 @@
         <v>66</v>
       </c>
       <c r="C152">
-        <v>248.4270775001456</v>
+        <v>250.298782372596</v>
       </c>
       <c r="D152">
-        <v>19.86155891418457</v>
+        <v>19.96328163146973</v>
       </c>
       <c r="E152">
         <v>1478.37646889903</v>
       </c>
       <c r="F152">
-        <v>267.9626159667969</v>
+        <v>266.5971984863281</v>
       </c>
       <c r="G152">
         <v>3.513903955135374</v>
@@ -4806,7 +4806,7 @@
         <v>1.309943888990366</v>
       </c>
       <c r="I152">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4817,16 +4817,16 @@
         <v>67</v>
       </c>
       <c r="C153">
-        <v>197.0723971608055</v>
+        <v>185.0658156007322</v>
       </c>
       <c r="D153">
-        <v>37.35625839233398</v>
+        <v>36.68518447875977</v>
       </c>
       <c r="E153">
         <v>292.6010743627921</v>
       </c>
       <c r="F153">
-        <v>28.19778823852539</v>
+        <v>28.71360206604004</v>
       </c>
       <c r="G153">
         <v>-0.9351353751330883</v>
@@ -4835,7 +4835,7 @@
         <v>-4.295350749098601</v>
       </c>
       <c r="I153">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -4846,16 +4846,16 @@
         <v>68</v>
       </c>
       <c r="C154">
-        <v>202.6980191035573</v>
+        <v>204.0889081854114</v>
       </c>
       <c r="D154">
-        <v>33.40224456787109</v>
+        <v>33.49015426635742</v>
       </c>
       <c r="E154">
         <v>20.36903480348701</v>
       </c>
       <c r="F154">
-        <v>2.195317268371582</v>
+        <v>2.189554691314697</v>
       </c>
       <c r="G154">
         <v>0.08839089202534364</v>
@@ -4864,7 +4864,7 @@
         <v>-0.4008727633516296</v>
       </c>
       <c r="I154">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4875,16 +4875,16 @@
         <v>69</v>
       </c>
       <c r="C155">
-        <v>192.6535283566785</v>
+        <v>197.8638764528695</v>
       </c>
       <c r="D155">
-        <v>35.01353073120117</v>
+        <v>35.34284973144531</v>
       </c>
       <c r="E155">
         <v>18.65366707263456</v>
       </c>
       <c r="F155">
-        <v>1.917921543121338</v>
+        <v>1.900050640106201</v>
       </c>
       <c r="G155">
         <v>-0.3949548349024165</v>
@@ -4893,7 +4893,7 @@
         <v>-2.043470506630904</v>
       </c>
       <c r="I155">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4922,7 +4922,7 @@
         <v>-1.802040962007777</v>
       </c>
       <c r="I156">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4933,16 +4933,16 @@
         <v>71</v>
       </c>
       <c r="C157">
-        <v>199.4107901252809</v>
+        <v>202.1261596227613</v>
       </c>
       <c r="D157">
-        <v>33.9703369140625</v>
+        <v>34.14196014404297</v>
       </c>
       <c r="E157">
         <v>39.58186892988306</v>
       </c>
       <c r="F157">
-        <v>4.194680690765381</v>
+        <v>4.173594951629639</v>
       </c>
       <c r="G157">
         <v>-0.09555382349409856</v>
@@ -4951,7 +4951,7 @@
         <v>-1.742113006776057</v>
       </c>
       <c r="I157">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4962,16 +4962,16 @@
         <v>72</v>
       </c>
       <c r="C158">
-        <v>207.6256135072174</v>
+        <v>210.4781257773617</v>
       </c>
       <c r="D158">
-        <v>32.58411026000977</v>
+        <v>32.76440811157227</v>
       </c>
       <c r="E158">
         <v>89.59064185099123</v>
       </c>
       <c r="F158">
-        <v>9.898269653320312</v>
+        <v>9.84380054473877</v>
       </c>
       <c r="G158">
         <v>0.2878333828145256</v>
@@ -4980,7 +4980,7 @@
         <v>-1.56225071611269</v>
       </c>
       <c r="I158">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5009,7 +5009,7 @@
         <v>-3.364038488402069</v>
       </c>
       <c r="I159">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5020,16 +5020,16 @@
         <v>74</v>
       </c>
       <c r="C160">
-        <v>201.5585744194662</v>
+        <v>204.3173334986473</v>
       </c>
       <c r="D160">
-        <v>33.38207244873047</v>
+        <v>33.55643463134766</v>
       </c>
       <c r="E160">
         <v>35.79399999910675</v>
       </c>
       <c r="F160">
-        <v>3.860107421875</v>
+        <v>3.840050220489502</v>
       </c>
       <c r="G160">
         <v>0.02429351747549238</v>
@@ -5038,7 +5038,7 @@
         <v>-2.850329613276325</v>
       </c>
       <c r="I160">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5049,16 +5049,16 @@
         <v>75</v>
       </c>
       <c r="C161">
-        <v>188.6393680438063</v>
+        <v>211.5045572426403</v>
       </c>
       <c r="D161">
-        <v>35.71997451782227</v>
+        <v>36.98584365844727</v>
       </c>
       <c r="E161">
         <v>122.4589308720097</v>
       </c>
       <c r="F161">
-        <v>12.34189414978027</v>
+        <v>11.91948318481445</v>
       </c>
       <c r="G161">
         <v>-0.6813108349116376</v>
@@ -5067,7 +5067,7 @@
         <v>-4.546921201111702</v>
       </c>
       <c r="I161">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5096,7 +5096,7 @@
         <v>-0.7150572444261751</v>
       </c>
       <c r="I162">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5107,16 +5107,16 @@
         <v>77</v>
       </c>
       <c r="C163">
-        <v>199.0121265846156</v>
+        <v>197.6720053187694</v>
       </c>
       <c r="D163">
-        <v>34.68062973022461</v>
+        <v>34.59592819213867</v>
       </c>
       <c r="E163">
         <v>74.4020240477912</v>
       </c>
       <c r="F163">
-        <v>7.723252773284912</v>
+        <v>7.742161750793457</v>
       </c>
       <c r="G163">
         <v>-0.191718887208056</v>
@@ -5125,7 +5125,7 @@
         <v>0.5490306867231698</v>
       </c>
       <c r="I163">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5154,7 +5154,7 @@
         <v>0.02587660591580461</v>
       </c>
       <c r="I164">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5165,16 +5165,16 @@
         <v>79</v>
       </c>
       <c r="C165">
-        <v>209.0596094043434</v>
+        <v>196.9424459965014</v>
       </c>
       <c r="D165">
-        <v>34.61347579956055</v>
+        <v>33.84897994995117</v>
       </c>
       <c r="E165">
         <v>75.08637616922351</v>
       </c>
       <c r="F165">
-        <v>7.809412956237793</v>
+        <v>7.985792636871338</v>
       </c>
       <c r="G165">
         <v>-0.1576901133683288</v>
@@ -5183,7 +5183,7 @@
         <v>-4.258154043925821</v>
       </c>
       <c r="I165">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5194,16 +5194,16 @@
         <v>80</v>
       </c>
       <c r="C166">
-        <v>235.9607523270495</v>
+        <v>234.251144803779</v>
       </c>
       <c r="D166">
-        <v>25.48665428161621</v>
+        <v>25.37860107421875</v>
       </c>
       <c r="E166">
         <v>2427.044252905944</v>
       </c>
       <c r="F166">
-        <v>342.8209228515625</v>
+        <v>344.2805480957031</v>
       </c>
       <c r="G166">
         <v>2.10853553547893</v>
@@ -5212,7 +5212,7 @@
         <v>0.7481270099782461</v>
       </c>
       <c r="I166">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5223,16 +5223,16 @@
         <v>81</v>
       </c>
       <c r="C167">
-        <v>150.4194953143916</v>
+        <v>154.9152582256754</v>
       </c>
       <c r="D167">
-        <v>42.78627777099609</v>
+        <v>42.98599243164062</v>
       </c>
       <c r="E167">
         <v>3454.663685947395</v>
       </c>
       <c r="F167">
-        <v>290.67236328125</v>
+        <v>289.3218994140625</v>
       </c>
       <c r="G167">
         <v>-2.514697343303455</v>
@@ -5241,7 +5241,7 @@
         <v>3.065985608365474</v>
       </c>
       <c r="I167">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5252,16 +5252,16 @@
         <v>82</v>
       </c>
       <c r="C168">
-        <v>235.4219415198865</v>
+        <v>233.7345955642441</v>
       </c>
       <c r="D168">
-        <v>25.98773765563965</v>
+        <v>25.88144683837891</v>
       </c>
       <c r="E168">
         <v>490.2055269807897</v>
       </c>
       <c r="F168">
-        <v>67.90663909912109</v>
+        <v>68.18551635742188</v>
       </c>
       <c r="G168">
         <v>1.944243625895261</v>
@@ -5270,7 +5270,7 @@
         <v>-2.419328873481414</v>
       </c>
       <c r="I168">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5281,16 +5281,16 @@
         <v>83</v>
       </c>
       <c r="C169">
-        <v>186.2819871107802</v>
+        <v>201.7758325287569</v>
       </c>
       <c r="D169">
-        <v>38.12351226806641</v>
+        <v>38.97448348999023</v>
       </c>
       <c r="E169">
         <v>527.239657418635</v>
       </c>
       <c r="F169">
-        <v>49.78719711303711</v>
+        <v>48.70014190673828</v>
       </c>
       <c r="G169">
         <v>-1.340100708621075</v>
@@ -5299,7 +5299,7 @@
         <v>-5.772312393461049</v>
       </c>
       <c r="I169">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
